--- a/longitudinal ratings/exp set up/progress track guide.xlsx
+++ b/longitudinal ratings/exp set up/progress track guide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="13940"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="12740" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="temp page for part no" sheetId="6" r:id="rId1"/>
@@ -30,49 +30,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>CHHS</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CHHS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>email</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CHHS</author>
@@ -116,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="192">
   <si>
     <t>Person's Name</t>
   </si>
@@ -686,6 +643,12 @@
   </si>
   <si>
     <t>matched partno</t>
+  </si>
+  <si>
+    <t>entered overall ?</t>
+  </si>
+  <si>
+    <t>match group</t>
   </si>
 </sst>
 </file>
@@ -1891,16 +1854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -1908,10 +1875,16 @@
         <v>188</v>
       </c>
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -1919,10 +1892,14 @@
         <v>555</v>
       </c>
       <c r="C2">
+        <f>B2+100</f>
+        <v>655</v>
+      </c>
+      <c r="D2">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>137</v>
       </c>
@@ -1930,10 +1907,14 @@
         <v>556</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C57" si="0">B3+100</f>
+        <v>656</v>
+      </c>
+      <c r="D3">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -1941,10 +1922,14 @@
         <v>557</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+      <c r="D4">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>104</v>
       </c>
@@ -1952,10 +1937,14 @@
         <v>558</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>658</v>
+      </c>
+      <c r="D5">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>162</v>
       </c>
@@ -1963,10 +1952,14 @@
         <v>559</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>659</v>
+      </c>
+      <c r="D6">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1974,10 +1967,14 @@
         <v>560</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="D7">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>79</v>
       </c>
@@ -1985,10 +1982,14 @@
         <v>561</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>661</v>
+      </c>
+      <c r="D8">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>66</v>
       </c>
@@ -1996,10 +1997,14 @@
         <v>562</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>662</v>
+      </c>
+      <c r="D9">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>150</v>
       </c>
@@ -2007,10 +2012,17 @@
         <v>563</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="D10">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>67</v>
       </c>
@@ -2018,10 +2030,14 @@
         <v>564</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>664</v>
+      </c>
+      <c r="D11">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>133</v>
       </c>
@@ -2029,10 +2045,14 @@
         <v>565</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="D12">
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -2040,10 +2060,14 @@
         <v>566</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="D13">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,10 +2075,14 @@
         <v>567</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>667</v>
+      </c>
+      <c r="D14">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -2062,10 +2090,14 @@
         <v>568</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>668</v>
+      </c>
+      <c r="D15">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>139</v>
       </c>
@@ -2073,10 +2105,14 @@
         <v>569</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+      <c r="D16">
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
@@ -2084,10 +2120,14 @@
         <v>570</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>670</v>
+      </c>
+      <c r="D17">
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>91</v>
       </c>
@@ -2095,10 +2135,14 @@
         <v>571</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="D18">
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
@@ -2106,10 +2150,14 @@
         <v>572</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="D19">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
@@ -2117,10 +2165,14 @@
         <v>573</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>673</v>
+      </c>
+      <c r="D20">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>77</v>
       </c>
@@ -2128,10 +2180,14 @@
         <v>574</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>674</v>
+      </c>
+      <c r="D21">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,10 +2195,14 @@
         <v>575</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="D22">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -2150,10 +2210,14 @@
         <v>576</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="D23">
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
@@ -2161,10 +2225,14 @@
         <v>577</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="D24">
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2172,10 +2240,14 @@
         <v>578</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>678</v>
+      </c>
+      <c r="D25">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>110</v>
       </c>
@@ -2183,10 +2255,14 @@
         <v>579</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>679</v>
+      </c>
+      <c r="D26">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -2194,10 +2270,14 @@
         <v>580</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="D27">
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2205,10 +2285,14 @@
         <v>581</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+      <c r="D28">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>116</v>
       </c>
@@ -2216,10 +2300,14 @@
         <v>582</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>682</v>
+      </c>
+      <c r="D29">
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>46</v>
       </c>
@@ -2227,10 +2315,14 @@
         <v>583</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>683</v>
+      </c>
+      <c r="D30">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>159</v>
       </c>
@@ -2238,10 +2330,14 @@
         <v>584</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="D31">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>157</v>
       </c>
@@ -2249,10 +2345,14 @@
         <v>585</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+      <c r="D32">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>19</v>
       </c>
@@ -2260,10 +2360,14 @@
         <v>586</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+      <c r="D33">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>95</v>
       </c>
@@ -2271,10 +2375,14 @@
         <v>587</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="D34">
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>52</v>
       </c>
@@ -2282,10 +2390,14 @@
         <v>588</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="D35">
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>119</v>
       </c>
@@ -2293,10 +2405,14 @@
         <v>589</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+      <c r="D36">
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>163</v>
       </c>
@@ -2304,10 +2420,14 @@
         <v>590</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="D37">
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>48</v>
       </c>
@@ -2315,10 +2435,14 @@
         <v>591</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="D38">
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>98</v>
       </c>
@@ -2326,10 +2450,14 @@
         <v>592</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
+      <c r="D39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>146</v>
       </c>
@@ -2337,10 +2465,14 @@
         <v>593</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="D40">
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>153</v>
       </c>
@@ -2348,10 +2480,14 @@
         <v>594</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>694</v>
+      </c>
+      <c r="D41">
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>108</v>
       </c>
@@ -2359,10 +2495,14 @@
         <v>595</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>695</v>
+      </c>
+      <c r="D42">
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
@@ -2370,10 +2510,14 @@
         <v>596</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>696</v>
+      </c>
+      <c r="D43">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>94</v>
       </c>
@@ -2381,10 +2525,14 @@
         <v>597</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>697</v>
+      </c>
+      <c r="D44">
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>155</v>
       </c>
@@ -2392,10 +2540,14 @@
         <v>598</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="D45">
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>170</v>
       </c>
@@ -2403,10 +2555,14 @@
         <v>599</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="D46">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>136</v>
       </c>
@@ -2414,10 +2570,14 @@
         <v>600</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D47">
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>131</v>
       </c>
@@ -2425,10 +2585,14 @@
         <v>601</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+      <c r="D48">
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>73</v>
       </c>
@@ -2436,10 +2600,14 @@
         <v>602</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+      <c r="D49">
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>114</v>
       </c>
@@ -2447,10 +2615,14 @@
         <v>603</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>703</v>
+      </c>
+      <c r="D50">
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>106</v>
       </c>
@@ -2458,10 +2630,14 @@
         <v>604</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>704</v>
+      </c>
+      <c r="D51">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>118</v>
       </c>
@@ -2469,10 +2645,14 @@
         <v>605</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="D52">
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>69</v>
       </c>
@@ -2480,10 +2660,14 @@
         <v>606</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="D53">
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -2491,10 +2675,14 @@
         <v>607</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
+        <v>707</v>
+      </c>
+      <c r="D54">
         <v>385</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>149</v>
       </c>
@@ -2502,10 +2690,17 @@
         <v>608</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
+        <v>708</v>
+      </c>
+      <c r="D55">
         <v>386</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -2513,10 +2708,14 @@
         <v>609</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="D56">
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>71</v>
       </c>
@@ -2524,6 +2723,10 @@
         <v>610</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="D57">
         <v>388</v>
       </c>
     </row>
@@ -2532,7 +2735,6 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/longitudinal ratings/exp set up/progress track guide.xlsx
+++ b/longitudinal ratings/exp set up/progress track guide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="12740" windowHeight="13940"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="temp page for part no" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">erin!$A$1:$Z$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'temp page for part no'!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="192">
   <si>
     <t>Person's Name</t>
   </si>
@@ -733,7 +734,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1146,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1171,6 +1178,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="381">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1855,19 +1865,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -1883,857 +1918,4499 @@
       <c r="E1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>66</v>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="B2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2">
         <f>B2+100</f>
+        <v>656</v>
+      </c>
+      <c r="D2">
+        <v>334</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H2" s="19">
+        <v>40629</v>
+      </c>
+      <c r="I2" s="17">
+        <v>6</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="19">
+        <v>40631</v>
+      </c>
+      <c r="L2" s="18">
+        <v>6</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="19">
+        <v>40633</v>
+      </c>
+      <c r="O2" s="17">
+        <v>5</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>40636</v>
+      </c>
+      <c r="R2" s="17">
+        <v>7</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="19">
+        <v>40638</v>
+      </c>
+      <c r="U2" s="17">
+        <v>4</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" s="19">
+        <v>40643</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="17">
+        <f>Y2+U2+R2+O2+L2+I2</f>
+        <v>31</v>
+      </c>
+      <c r="AA2" s="17">
+        <f>Z2/30*1</f>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>557</v>
+      </c>
+      <c r="C3">
+        <f>B3+100</f>
+        <v>657</v>
+      </c>
+      <c r="D3">
+        <v>335</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="19">
+        <v>40584</v>
+      </c>
+      <c r="H3" s="19">
+        <v>40584</v>
+      </c>
+      <c r="I3" s="17">
+        <v>8</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17">
+        <f>Y3+U3+R3+O3+L3+I3</f>
+        <v>8</v>
+      </c>
+      <c r="AA3" s="17">
+        <f>Z3/30*1</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>558</v>
+      </c>
+      <c r="C4">
+        <f>B4+100</f>
+        <v>658</v>
+      </c>
+      <c r="D4">
+        <v>336</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="19">
+        <v>40627</v>
+      </c>
+      <c r="H4" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I4" s="17">
+        <v>7</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17">
+        <f>Y4+U4+R4+O4+L4+I4</f>
+        <v>7</v>
+      </c>
+      <c r="AA4" s="17">
+        <f>Z4/30*1</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="32">
+        <v>559</v>
+      </c>
+      <c r="C5" s="32">
+        <f>B5+100</f>
+        <v>659</v>
+      </c>
+      <c r="D5" s="32">
+        <v>337</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="19">
+        <v>40636</v>
+      </c>
+      <c r="H5" s="19">
+        <v>40636</v>
+      </c>
+      <c r="I5" s="17">
+        <v>9</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="19">
+        <v>40638</v>
+      </c>
+      <c r="L5" s="18">
+        <v>5</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N5" s="19">
+        <v>40643</v>
+      </c>
+      <c r="O5" s="17">
+        <v>4</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>40645</v>
+      </c>
+      <c r="R5" s="17">
+        <v>5</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" s="19">
+        <v>40647</v>
+      </c>
+      <c r="U5" s="17">
+        <v>5</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X5" s="19">
+        <v>40651</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="17">
+        <f>Y5+U5+R5+O5+L5+I5</f>
+        <v>32</v>
+      </c>
+      <c r="AA5" s="17">
+        <f>Z5/30*1</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>560</v>
+      </c>
+      <c r="C6">
+        <f>B6+100</f>
+        <v>660</v>
+      </c>
+      <c r="D6">
+        <v>338</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H6" s="4">
+        <v>40588</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7">
+        <v>40590</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>40594</v>
+      </c>
+      <c r="O6" s="1">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>40614</v>
+      </c>
+      <c r="R6" s="1">
+        <v>9</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="4">
+        <v>40619</v>
+      </c>
+      <c r="U6" s="1">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="4">
+        <v>40622</v>
+      </c>
+      <c r="X6" s="4">
+        <v>40624</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>Y6+U6+R6+O6+L6+I6</f>
+        <v>59</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>Z6/30*1</f>
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="32">
+        <v>561</v>
+      </c>
+      <c r="C7" s="32">
+        <f>B7+100</f>
+        <v>661</v>
+      </c>
+      <c r="D7" s="32">
+        <v>339</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="19">
+        <v>40611</v>
+      </c>
+      <c r="H7" s="19">
+        <v>40612</v>
+      </c>
+      <c r="I7" s="17">
+        <v>7</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="19">
+        <v>40615</v>
+      </c>
+      <c r="L7" s="18">
+        <v>14</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="19">
+        <v>40621</v>
+      </c>
+      <c r="O7" s="17">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>40630</v>
+      </c>
+      <c r="R7" s="17">
+        <v>7</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="19">
+        <v>40650</v>
+      </c>
+      <c r="U7" s="17">
+        <v>6</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X7" s="29">
+        <v>40656</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>Y7+U7+R7+O7+L7+I7</f>
+        <v>45</v>
+      </c>
+      <c r="AA7" s="17">
+        <f>Z7/30*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>555</v>
+      </c>
+      <c r="C8">
+        <f>B8+100</f>
         <v>655</v>
       </c>
-      <c r="D2">
+      <c r="D8">
         <v>333</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3">
-        <v>556</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C57" si="0">B3+100</f>
-        <v>656</v>
-      </c>
-      <c r="D3">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="F8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="19">
+        <v>40611</v>
+      </c>
+      <c r="H8" s="19">
+        <v>40611</v>
+      </c>
+      <c r="I8" s="17">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="23">
+        <v>40621</v>
+      </c>
+      <c r="L8" s="18">
+        <v>14</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="23">
+        <v>40623</v>
+      </c>
+      <c r="O8" s="17">
+        <v>11</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>40626</v>
+      </c>
+      <c r="R8" s="17">
+        <v>13</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17">
+        <f>Y8+U8+R8+O8+L8+I8</f>
+        <v>55</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>Z8/30*1</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="32">
+        <v>563</v>
+      </c>
+      <c r="C9" s="32">
+        <f>B9+100</f>
+        <v>663</v>
+      </c>
+      <c r="D9" s="32">
+        <v>341</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="19">
+        <v>40633</v>
+      </c>
+      <c r="H9" s="19">
+        <v>40633</v>
+      </c>
+      <c r="I9" s="17">
+        <v>6</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="19">
+        <v>40636</v>
+      </c>
+      <c r="L9" s="18">
+        <v>5</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="19">
+        <v>40638</v>
+      </c>
+      <c r="O9" s="17">
+        <v>10</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>40643</v>
+      </c>
+      <c r="R9" s="17">
+        <v>6</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="T9" s="19">
+        <v>40645</v>
+      </c>
+      <c r="U9" s="17">
+        <v>5</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X9" s="19">
+        <v>40647</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>Y9+U9+R9+O9+L9+I9</f>
+        <v>35</v>
+      </c>
+      <c r="AA9" s="17">
+        <f>Z9/30*1</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>564</v>
+      </c>
+      <c r="C10">
+        <f>B10+100</f>
+        <v>664</v>
+      </c>
+      <c r="D10">
+        <v>342</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="19">
+        <v>40611</v>
+      </c>
+      <c r="H10" s="19">
+        <v>40614</v>
+      </c>
+      <c r="I10" s="17">
+        <v>6</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="23">
+        <v>40630</v>
+      </c>
+      <c r="L10" s="18">
+        <v>5</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17">
+        <f>Y10+U10+R10+O10+L10+I10</f>
+        <v>11</v>
+      </c>
+      <c r="AA10" s="17">
+        <f>Z10/30*1</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>565</v>
+      </c>
+      <c r="C11">
+        <f>B11+100</f>
+        <v>665</v>
+      </c>
+      <c r="D11">
+        <v>343</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H11" s="19">
+        <v>40629</v>
+      </c>
+      <c r="I11" s="17">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="19">
+        <v>40632</v>
+      </c>
+      <c r="L11" s="18">
+        <v>9</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="19">
+        <v>40634</v>
+      </c>
+      <c r="O11" s="17">
+        <v>6</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>40637</v>
+      </c>
+      <c r="R11" s="17">
+        <v>6</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="19">
+        <v>40639</v>
+      </c>
+      <c r="U11" s="17">
+        <v>6</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X11" s="19">
+        <v>40643</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="17">
+        <f>Y11+U11+R11+O11+L11+I11</f>
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>557</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>657</v>
-      </c>
-      <c r="D4">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5">
-        <v>558</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>658</v>
-      </c>
-      <c r="D5">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6">
-        <v>559</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>659</v>
-      </c>
-      <c r="D6">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>560</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="D7">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="AA11" s="17">
+        <f>Z11/30*1</f>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>566</v>
+      </c>
+      <c r="C12">
+        <f>B12+100</f>
+        <v>666</v>
+      </c>
+      <c r="D12">
+        <v>344</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="4">
+        <v>40631</v>
+      </c>
+      <c r="H12" s="4">
+        <v>40624</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="4">
+        <v>40629</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="4">
+        <v>40632</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>40635</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="4">
+        <v>40637</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="X12" s="4">
+        <v>40640</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>Y12+U12+R12+O12+L12+I12</f>
+        <v>30</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>Z12/30*1</f>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>567</v>
+      </c>
+      <c r="C13">
+        <f>B13+100</f>
+        <v>667</v>
+      </c>
+      <c r="D13">
+        <v>345</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H13" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4">
+        <v>40586</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="4">
+        <v>40589</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>40591</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="4">
+        <v>40595</v>
+      </c>
+      <c r="U13" s="1">
+        <v>6</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="4">
+        <v>40598</v>
+      </c>
+      <c r="X13" s="4">
+        <v>40598</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>Y13+U13+R13+O13+L13+I13</f>
+        <v>30</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>Z13/30*1</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>568</v>
+      </c>
+      <c r="C14">
+        <f>B14+100</f>
+        <v>668</v>
+      </c>
+      <c r="D14">
+        <v>346</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7">
+        <v>40614</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40615</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7">
+        <v>40617</v>
+      </c>
+      <c r="L14" s="8">
+        <v>14</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="7">
+        <v>40620</v>
+      </c>
+      <c r="O14" s="5">
+        <v>14</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>40623</v>
+      </c>
+      <c r="R14" s="5">
+        <v>13</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="7">
+        <v>40626</v>
+      </c>
+      <c r="U14" s="5">
+        <v>9</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" s="7">
+        <v>40630</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="5">
+        <f>Y14+U14+R14+O14+L14+I14</f>
+        <v>61</v>
+      </c>
+      <c r="AA14" s="5">
+        <f>Z14/30*1</f>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>569</v>
+      </c>
+      <c r="C15">
+        <f>B15+100</f>
+        <v>669</v>
+      </c>
+      <c r="D15">
+        <v>347</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H15" s="19">
+        <v>40630</v>
+      </c>
+      <c r="I15" s="17">
+        <v>11</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="19">
+        <v>40637</v>
+      </c>
+      <c r="L15" s="18">
+        <v>17</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="19">
+        <v>40645</v>
+      </c>
+      <c r="O15" s="17">
+        <v>5</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>40650</v>
+      </c>
+      <c r="R15" s="17">
+        <v>5</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="T15" s="19">
+        <v>40653</v>
+      </c>
+      <c r="U15" s="17">
+        <v>3</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X15" s="19">
+        <v>40658</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="17">
+        <f>Y15+U15+R15+O15+L15+I15</f>
+        <v>45</v>
+      </c>
+      <c r="AA15" s="17">
+        <f>Z15/30*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>570</v>
+      </c>
+      <c r="C16">
+        <f>B16+100</f>
+        <v>670</v>
+      </c>
+      <c r="D16">
+        <v>348</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="19">
+        <v>40596</v>
+      </c>
+      <c r="H16" s="19">
+        <v>40596</v>
+      </c>
+      <c r="I16" s="17">
+        <v>14</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17">
+        <f>Y16+U16+R16+O16+L16+I16</f>
+        <v>14</v>
+      </c>
+      <c r="AA16" s="17">
+        <f>Z16/30*1</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>571</v>
+      </c>
+      <c r="C17">
+        <f>B17+100</f>
+        <v>671</v>
+      </c>
+      <c r="D17">
+        <v>349</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="19">
+        <v>40623</v>
+      </c>
+      <c r="H17" s="19">
+        <v>40623</v>
+      </c>
+      <c r="I17" s="17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="19">
+        <v>40627</v>
+      </c>
+      <c r="L17" s="18">
+        <v>10</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="19">
+        <v>40632</v>
+      </c>
+      <c r="O17" s="17">
+        <v>11</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>40637</v>
+      </c>
+      <c r="R17" s="17">
+        <v>7</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" s="19">
+        <v>40639</v>
+      </c>
+      <c r="U17" s="17">
+        <v>9</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" s="19">
+        <v>40643</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="17">
+        <f>Y17+U17+R17+O17+L17+I17</f>
+        <v>54</v>
+      </c>
+      <c r="AA17" s="17">
+        <f>Z17/30*1</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB17" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="32">
+        <v>572</v>
+      </c>
+      <c r="C18" s="32">
+        <f>B18+100</f>
+        <v>672</v>
+      </c>
+      <c r="D18" s="32">
+        <v>350</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="19">
+        <v>40626</v>
+      </c>
+      <c r="H18" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I18" s="17">
+        <v>9</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="19">
+        <v>40638</v>
+      </c>
+      <c r="L18" s="18">
+        <v>5</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="19">
+        <v>40643</v>
+      </c>
+      <c r="O18" s="17">
+        <v>34</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>40645</v>
+      </c>
+      <c r="R18" s="17">
+        <v>9</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T18" s="19">
+        <v>40650</v>
+      </c>
+      <c r="U18" s="17">
+        <v>10</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" s="19">
+        <v>40652</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="17">
+        <f>Y18+U18+R18+O18+L18+I18</f>
+        <v>74</v>
+      </c>
+      <c r="AA18" s="17">
+        <f>Z18/30*1</f>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AB18" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>573</v>
+      </c>
+      <c r="C19">
+        <f>B19+100</f>
+        <v>673</v>
+      </c>
+      <c r="D19">
+        <v>351</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4">
+        <v>40611</v>
+      </c>
+      <c r="H19" s="4">
+        <v>40611</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40616</v>
+      </c>
+      <c r="L19" s="2">
+        <v>14</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="4">
+        <v>40619</v>
+      </c>
+      <c r="O19" s="1">
+        <v>11</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>40624</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="4">
+        <v>40627</v>
+      </c>
+      <c r="U19" s="1">
+        <v>9</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="X19" s="4">
+        <v>40630</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>Y19+U19+R19+O19+L19+I19</f>
+        <v>61</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>Z19/30*1</f>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>574</v>
+      </c>
+      <c r="C20">
+        <f>B20+100</f>
+        <v>674</v>
+      </c>
+      <c r="D20">
+        <v>352</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="7">
+        <v>40611</v>
+      </c>
+      <c r="H20" s="7">
+        <v>40611</v>
+      </c>
+      <c r="I20" s="5">
+        <v>8</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="7">
+        <v>40615</v>
+      </c>
+      <c r="L20" s="8">
+        <v>8</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="7">
+        <v>40618</v>
+      </c>
+      <c r="O20" s="5">
+        <v>5</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>40620</v>
+      </c>
+      <c r="R20" s="5">
+        <v>6</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="7">
+        <v>40624</v>
+      </c>
+      <c r="U20" s="5">
+        <v>5</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X20" s="7">
+        <v>40627</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="5">
+        <f>Y20+U20+R20+O20+L20+I20</f>
+        <v>35</v>
+      </c>
+      <c r="AA20" s="5">
+        <f>Z20/30*1</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>575</v>
+      </c>
+      <c r="C21">
+        <f>B21+100</f>
+        <v>675</v>
+      </c>
+      <c r="D21">
+        <v>353</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H21" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4">
+        <v>40588</v>
+      </c>
+      <c r="L21" s="2">
+        <v>7</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="7">
+        <v>40592</v>
+      </c>
+      <c r="O21" s="1">
+        <v>8</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>40596</v>
+      </c>
+      <c r="R21" s="1">
+        <v>7</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="4">
+        <v>40598</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="4">
+        <v>40603</v>
+      </c>
+      <c r="X21" s="4">
+        <v>40622</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>Y21+U21+R21+O21+L21+I21</f>
+        <v>39</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>Z21/30*1</f>
+        <v>1.3</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>576</v>
+      </c>
+      <c r="C22">
+        <f>B22+100</f>
+        <v>676</v>
+      </c>
+      <c r="D22">
+        <v>354</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H22" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="7">
+        <v>40617</v>
+      </c>
+      <c r="L22" s="2">
+        <v>6</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="7">
+        <v>40624</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>40627</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="4">
+        <v>40630</v>
+      </c>
+      <c r="U22" s="1">
+        <v>9</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="X22" s="4">
+        <v>40633</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Y22+U22+R22+O22+L22+I22</f>
+        <v>36</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>Z22/30*1</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>577</v>
+      </c>
+      <c r="C23">
+        <f>B23+100</f>
+        <v>677</v>
+      </c>
+      <c r="D23">
+        <v>355</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H23" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="4">
+        <v>40588</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="7">
+        <v>40596</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>40624</v>
+      </c>
+      <c r="R23" s="1">
+        <v>6</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="4">
+        <v>40630</v>
+      </c>
+      <c r="U23" s="1">
+        <v>6</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="4">
+        <v>40632</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>Y23+U23+R23+O23+L23+I23</f>
+        <v>38</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>Z23/30*1</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>578</v>
+      </c>
+      <c r="C24">
+        <f>B24+100</f>
+        <v>678</v>
+      </c>
+      <c r="D24">
+        <v>356</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="19">
+        <v>40625</v>
+      </c>
+      <c r="H24" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I24" s="17">
+        <v>7</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17">
+        <f>Y24+U24+R24+O24+L24+I24</f>
+        <v>7</v>
+      </c>
+      <c r="AA24" s="17">
+        <f>Z24/30*1</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>579</v>
+      </c>
+      <c r="C25">
+        <f>B25+100</f>
+        <v>679</v>
+      </c>
+      <c r="D25">
+        <v>357</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H25" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I25" s="17">
+        <v>6</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="19">
+        <v>40629</v>
+      </c>
+      <c r="L25" s="18">
+        <v>7</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="19">
+        <v>40644</v>
+      </c>
+      <c r="O25" s="17">
+        <v>7</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>40646</v>
+      </c>
+      <c r="R25" s="17">
+        <v>5</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17">
+        <f>Y25+U25+R25+O25+L25+I25</f>
+        <v>25</v>
+      </c>
+      <c r="AA25" s="17">
+        <f>Z25/30*1</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>580</v>
+      </c>
+      <c r="C26">
+        <f>B26+100</f>
+        <v>680</v>
+      </c>
+      <c r="D26">
+        <v>358</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="4">
+        <v>40614</v>
+      </c>
+      <c r="H26" s="4">
+        <v>40615</v>
+      </c>
+      <c r="I26" s="1">
+        <v>18</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="7">
+        <v>40617</v>
+      </c>
+      <c r="L26" s="2">
+        <v>6</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="7">
+        <v>40619</v>
+      </c>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>40625</v>
+      </c>
+      <c r="R26" s="1">
+        <v>5</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="4">
+        <v>40628</v>
+      </c>
+      <c r="U26" s="1">
+        <v>10</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="X26" s="4">
+        <v>40630</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>Y26+U26+R26+O26+L26+I26</f>
+        <v>48</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>Z26/30*1</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>581</v>
+      </c>
+      <c r="C27">
+        <f>B27+100</f>
+        <v>681</v>
+      </c>
+      <c r="D27">
+        <v>359</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H27" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="4">
+        <v>40587</v>
+      </c>
+      <c r="L27" s="2">
+        <v>6</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="4">
+        <v>40589</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>40591</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" s="4">
+        <v>40595</v>
+      </c>
+      <c r="U27" s="1">
+        <v>5</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" s="4">
+        <v>40601</v>
+      </c>
+      <c r="X27" s="4">
+        <v>40602</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>Y27+U27+R27+O27+L27+I27</f>
+        <v>29</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>Z27/30*1</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="32">
+        <v>582</v>
+      </c>
+      <c r="C28" s="32">
+        <f>B28+100</f>
+        <v>682</v>
+      </c>
+      <c r="D28" s="32">
+        <v>360</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="19">
+        <v>40633</v>
+      </c>
+      <c r="H28" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I28" s="17">
+        <v>10</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="19">
+        <v>40627</v>
+      </c>
+      <c r="L28" s="18">
+        <v>6</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="19">
+        <v>40633</v>
+      </c>
+      <c r="O28" s="17">
+        <v>6</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>40637</v>
+      </c>
+      <c r="R28" s="17">
+        <v>5</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T28" s="19">
+        <v>40650</v>
+      </c>
+      <c r="U28" s="17">
+        <v>5</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X28" s="19">
+        <v>40652</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="17">
+        <f>Y28+U28+R28+O28+L28+I28</f>
+        <v>34</v>
+      </c>
+      <c r="AA28" s="17">
+        <f>Z28/30*1</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="32">
+        <v>583</v>
+      </c>
+      <c r="C29" s="32">
+        <f>B29+100</f>
+        <v>683</v>
+      </c>
+      <c r="D29" s="32">
+        <v>361</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="19">
+        <v>40596</v>
+      </c>
+      <c r="H29" s="19">
+        <v>40596</v>
+      </c>
+      <c r="I29" s="17">
+        <v>10</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="23">
+        <v>40633</v>
+      </c>
+      <c r="L29" s="18">
+        <v>8</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="23">
+        <v>40637</v>
+      </c>
+      <c r="O29" s="17">
+        <v>7</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>40645</v>
+      </c>
+      <c r="R29" s="17">
+        <v>6</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="T29" s="19">
+        <v>40648</v>
+      </c>
+      <c r="U29" s="17">
+        <v>6</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W29" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X29" s="19">
+        <v>40650</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="17">
+        <f>Y29+U29+R29+O29+L29+I29</f>
+        <v>40</v>
+      </c>
+      <c r="AA29" s="17">
+        <f>Z29/30*1</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AB29" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="32">
+        <v>584</v>
+      </c>
+      <c r="C30" s="32">
+        <f>B30+100</f>
+        <v>684</v>
+      </c>
+      <c r="D30" s="32">
+        <v>362</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="23">
+        <v>40635</v>
+      </c>
+      <c r="H30" s="23">
+        <v>40634</v>
+      </c>
+      <c r="I30" s="20">
+        <v>5</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="23">
+        <v>40637</v>
+      </c>
+      <c r="L30" s="27">
+        <v>4</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="23">
+        <v>40639</v>
+      </c>
+      <c r="O30" s="20">
+        <v>3</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>40643</v>
+      </c>
+      <c r="R30" s="20">
+        <v>3</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="T30" s="23">
+        <v>40645</v>
+      </c>
+      <c r="U30" s="20">
+        <v>3</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W30" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X30" s="23">
+        <v>40647</v>
+      </c>
+      <c r="Y30" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="17">
+        <f>Y30+U30+R30+O30+L30+I30</f>
+        <v>21</v>
+      </c>
+      <c r="AA30" s="17">
+        <f>Z30/30*1</f>
+        <v>0.7</v>
+      </c>
+      <c r="AB30" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="32">
+        <v>585</v>
+      </c>
+      <c r="C31" s="32">
+        <f>B31+100</f>
+        <v>685</v>
+      </c>
+      <c r="D31" s="32">
+        <v>363</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="23">
+        <v>40635</v>
+      </c>
+      <c r="H31" s="23">
+        <v>40634</v>
+      </c>
+      <c r="I31" s="20">
+        <v>11</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="23">
+        <v>40637</v>
+      </c>
+      <c r="L31" s="27">
+        <v>19</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="23">
+        <v>40640</v>
+      </c>
+      <c r="O31" s="20">
+        <v>11</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>40643</v>
+      </c>
+      <c r="R31" s="20">
+        <v>9</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="T31" s="23">
+        <v>40645</v>
+      </c>
+      <c r="U31" s="20">
+        <v>15</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X31" s="23">
+        <v>40647</v>
+      </c>
+      <c r="Y31" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="17">
+        <f>Y31+U31+R31+O31+L31+I31</f>
+        <v>69</v>
+      </c>
+      <c r="AA31" s="17">
+        <f>Z31/30*1</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB31" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>586</v>
+      </c>
+      <c r="C32">
+        <f>B32+100</f>
+        <v>686</v>
+      </c>
+      <c r="D32">
+        <v>364</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="19">
+        <v>40583</v>
+      </c>
+      <c r="H32" s="19">
+        <v>40583</v>
+      </c>
+      <c r="I32" s="17">
+        <v>7</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="19">
+        <v>40588</v>
+      </c>
+      <c r="L32" s="18">
+        <v>6</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="23">
+        <v>40598</v>
+      </c>
+      <c r="O32" s="17">
+        <v>4</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>40659</v>
+      </c>
+      <c r="R32" s="17">
+        <v>3</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17">
+        <f>Y32+U32+R32+O32+L32+I32</f>
+        <v>20</v>
+      </c>
+      <c r="AA32" s="17">
+        <f>Z32/30*1</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>587</v>
+      </c>
+      <c r="C33">
+        <f>B33+100</f>
+        <v>687</v>
+      </c>
+      <c r="D33">
+        <v>365</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="19">
+        <v>40623</v>
+      </c>
+      <c r="H33" s="19">
+        <v>40623</v>
+      </c>
+      <c r="I33" s="17">
+        <v>10</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="19">
+        <v>40626</v>
+      </c>
+      <c r="L33" s="18">
+        <v>6</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="19">
+        <v>40630</v>
+      </c>
+      <c r="O33" s="17">
+        <v>5</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>40636</v>
+      </c>
+      <c r="R33" s="17">
+        <v>4</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" s="19">
+        <v>40643</v>
+      </c>
+      <c r="U33" s="17">
+        <v>4</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X33" s="19">
+        <v>40646</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="17">
+        <f>Y33+U33+R33+O33+L33+I33</f>
+        <v>31</v>
+      </c>
+      <c r="AA33" s="17">
+        <f>Z33/30*1</f>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="AB33" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>588</v>
+      </c>
+      <c r="C34">
+        <f>B34+100</f>
+        <v>688</v>
+      </c>
+      <c r="D34">
+        <v>366</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="19">
+        <v>40596</v>
+      </c>
+      <c r="H34" s="23">
+        <v>40597</v>
+      </c>
+      <c r="I34" s="17">
+        <v>10</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="23">
+        <v>40602</v>
+      </c>
+      <c r="L34" s="18">
+        <v>12</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17">
+        <f>Y34+U34+R34+O34+L34+I34</f>
+        <v>22</v>
+      </c>
+      <c r="AA34" s="17">
+        <f>Z34/30*1</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="32">
+        <v>589</v>
+      </c>
+      <c r="C35" s="32">
+        <f>B35+100</f>
+        <v>689</v>
+      </c>
+      <c r="D35" s="32">
+        <v>367</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="19">
+        <v>40604</v>
+      </c>
+      <c r="H35" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I35" s="17">
+        <v>11</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="19">
+        <v>40629</v>
+      </c>
+      <c r="L35" s="18">
+        <v>15</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="19">
+        <v>40633</v>
+      </c>
+      <c r="O35" s="17">
+        <v>20</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>40638</v>
+      </c>
+      <c r="R35" s="17">
+        <v>16</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35" s="19">
+        <v>40645</v>
+      </c>
+      <c r="U35" s="17">
+        <v>15</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W35" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X35" s="19">
+        <v>40648</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="17">
+        <f>Y35+U35+R35+O35+L35+I35</f>
+        <v>82</v>
+      </c>
+      <c r="AA35" s="17">
+        <f>Z35/30*1</f>
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="AB35" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36">
+        <v>590</v>
+      </c>
+      <c r="C36">
+        <f>B36+100</f>
+        <v>690</v>
+      </c>
+      <c r="D36">
+        <v>368</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="19">
+        <v>40636</v>
+      </c>
+      <c r="H36" s="19">
+        <v>40636</v>
+      </c>
+      <c r="I36" s="17">
+        <v>19</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17">
+        <f>Y36+U36+R36+O36+L36+I36</f>
+        <v>19</v>
+      </c>
+      <c r="AA36" s="17">
+        <f>Z36/30*1</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>591</v>
+      </c>
+      <c r="C37">
+        <f>B37+100</f>
+        <v>691</v>
+      </c>
+      <c r="D37">
+        <v>369</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="23">
+        <v>40629</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="23">
+        <v>40632</v>
+      </c>
+      <c r="L37" s="18">
+        <v>8</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="N37" s="20"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17">
+        <f>Y37+U37+R37+O37+L37+I37</f>
+        <v>15</v>
+      </c>
+      <c r="AA37" s="17">
+        <f>Z37/30*1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <v>592</v>
+      </c>
+      <c r="C38">
+        <f>B38+100</f>
+        <v>692</v>
+      </c>
+      <c r="D38">
+        <v>370</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="19">
+        <v>40624</v>
+      </c>
+      <c r="H38" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I38" s="17">
+        <v>12</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="19">
+        <v>40634</v>
+      </c>
+      <c r="L38" s="18">
+        <v>12</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17">
+        <f>Y38+U38+R38+O38+L38+I38</f>
+        <v>24</v>
+      </c>
+      <c r="AA38" s="17">
+        <f>Z38/30*1</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="32">
+        <v>593</v>
+      </c>
+      <c r="C39" s="32">
+        <f>B39+100</f>
+        <v>693</v>
+      </c>
+      <c r="D39" s="32">
+        <v>371</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="19">
+        <v>40633</v>
+      </c>
+      <c r="H39" s="19">
+        <v>40633</v>
+      </c>
+      <c r="I39" s="17">
+        <v>10</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="19">
+        <v>40636</v>
+      </c>
+      <c r="L39" s="18">
+        <v>10</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" s="19">
+        <v>40638</v>
+      </c>
+      <c r="O39" s="17">
+        <v>6</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>40644</v>
+      </c>
+      <c r="R39" s="17">
+        <v>9</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="T39" s="19">
+        <v>40646</v>
+      </c>
+      <c r="U39" s="17">
+        <v>5</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X39" s="19">
+        <v>40649</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>14</v>
+      </c>
+      <c r="Z39" s="17">
+        <f>Y39+U39+R39+O39+L39+I39</f>
+        <v>54</v>
+      </c>
+      <c r="AA39" s="17">
+        <f>Z39/30*1</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB39" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="32">
+        <v>594</v>
+      </c>
+      <c r="C40" s="32">
+        <f>B40+100</f>
+        <v>694</v>
+      </c>
+      <c r="D40" s="32">
+        <v>372</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="23">
+        <v>40633</v>
+      </c>
+      <c r="H40" s="23">
+        <v>40634</v>
+      </c>
+      <c r="I40" s="20">
+        <v>15</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K40" s="23">
+        <v>40638</v>
+      </c>
+      <c r="L40" s="27">
+        <v>12</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N40" s="23">
+        <v>40644</v>
+      </c>
+      <c r="O40" s="20">
+        <v>12</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>40648</v>
+      </c>
+      <c r="R40" s="20">
+        <v>9</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="T40" s="23">
+        <v>40651</v>
+      </c>
+      <c r="U40" s="20">
+        <v>9</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X40" s="23">
+        <v>40659</v>
+      </c>
+      <c r="Y40" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="17">
+        <f>Y40+U40+R40+O40+L40+I40</f>
+        <v>60</v>
+      </c>
+      <c r="AA40" s="17">
+        <f>Z40/30*1</f>
+        <v>2</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41">
+        <v>595</v>
+      </c>
+      <c r="C41">
+        <f>B41+100</f>
+        <v>695</v>
+      </c>
+      <c r="D41">
+        <v>373</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="19">
+        <v>40629</v>
+      </c>
+      <c r="H41" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I41" s="17">
+        <v>11</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="19">
+        <v>40631</v>
+      </c>
+      <c r="L41" s="18">
+        <v>12</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17">
+        <f>Y41+U41+R41+O41+L41+I41</f>
+        <v>23</v>
+      </c>
+      <c r="AA41" s="17">
+        <f>Z41/30*1</f>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="32">
+        <v>596</v>
+      </c>
+      <c r="C42" s="32">
+        <f>B42+100</f>
+        <v>696</v>
+      </c>
+      <c r="D42" s="32">
+        <v>374</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="19">
+        <v>40583</v>
+      </c>
+      <c r="H42" s="19">
+        <v>40583</v>
+      </c>
+      <c r="I42" s="17">
+        <v>12</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="19">
+        <v>40587</v>
+      </c>
+      <c r="L42" s="18">
+        <v>14</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="23">
+        <v>40600</v>
+      </c>
+      <c r="O42" s="17">
+        <v>12</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>40603</v>
+      </c>
+      <c r="R42" s="17">
+        <v>9</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="T42" s="19">
+        <v>40649</v>
+      </c>
+      <c r="U42" s="17">
+        <v>12</v>
+      </c>
+      <c r="V42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W42" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X42" s="30">
+        <v>40652</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="17">
+        <f>Y42+U42+R42+O42+L42+I42</f>
+        <v>62</v>
+      </c>
+      <c r="AA42" s="17">
+        <f>Z42/30*1</f>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="AB42" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43">
+        <v>597</v>
+      </c>
+      <c r="C43">
+        <f>B43+100</f>
+        <v>697</v>
+      </c>
+      <c r="D43">
+        <v>375</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="19">
+        <v>40623</v>
+      </c>
+      <c r="H43" s="19">
+        <v>40623</v>
+      </c>
+      <c r="I43" s="17">
+        <v>7</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="19">
+        <v>40627</v>
+      </c>
+      <c r="L43" s="18">
+        <v>7</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N43" s="19">
+        <v>40631</v>
+      </c>
+      <c r="O43" s="17">
+        <v>6</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>40635</v>
+      </c>
+      <c r="R43" s="17">
+        <v>8</v>
+      </c>
+      <c r="S43" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T43" s="19">
+        <v>40637</v>
+      </c>
+      <c r="U43" s="17">
+        <v>4</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W43" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X43" s="19">
+        <v>40646</v>
+      </c>
+      <c r="Y43" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="17">
+        <f>Y43+U43+R43+O43+L43+I43</f>
+        <v>35</v>
+      </c>
+      <c r="AA43" s="17">
+        <f>Z43/30*1</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AB43" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44">
+        <v>598</v>
+      </c>
+      <c r="C44">
+        <f>B44+100</f>
+        <v>698</v>
+      </c>
+      <c r="D44">
+        <v>376</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="19">
+        <v>40635</v>
+      </c>
+      <c r="H44" s="19">
+        <v>40635</v>
+      </c>
+      <c r="I44" s="17">
+        <v>13</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44" s="19">
+        <v>40643</v>
+      </c>
+      <c r="L44" s="18">
+        <v>13</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="N44" s="19">
+        <v>40647</v>
+      </c>
+      <c r="O44" s="17">
+        <v>13</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17">
+        <f>Y44+U44+R44+O44+L44+I44</f>
+        <v>39</v>
+      </c>
+      <c r="AA44" s="17">
+        <f>Z44/30*1</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45">
+        <v>599</v>
+      </c>
+      <c r="C45">
+        <f>B45+100</f>
+        <v>699</v>
+      </c>
+      <c r="D45">
+        <v>377</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="19">
+        <v>40641</v>
+      </c>
+      <c r="H45" s="19">
+        <v>40641</v>
+      </c>
+      <c r="I45" s="17">
+        <v>9</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K45" s="23">
+        <v>40644</v>
+      </c>
+      <c r="L45" s="18">
+        <v>9</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N45" s="19">
+        <v>40646</v>
+      </c>
+      <c r="O45" s="17">
+        <v>14</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>40650</v>
+      </c>
+      <c r="R45" s="17">
+        <v>9</v>
+      </c>
+      <c r="S45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="T45" s="19">
+        <v>40652</v>
+      </c>
+      <c r="U45" s="17">
+        <v>5</v>
+      </c>
+      <c r="V45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W45" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X45" s="19">
+        <v>40655</v>
+      </c>
+      <c r="Y45" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="17">
+        <f>Y45+U45+R45+O45+L45+I45</f>
+        <v>48</v>
+      </c>
+      <c r="AA45" s="17">
+        <f>Z45/30*1</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB45" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>600</v>
+      </c>
+      <c r="C46">
+        <f>B46+100</f>
+        <v>700</v>
+      </c>
+      <c r="D46">
+        <v>378</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H46" s="19">
+        <v>40629</v>
+      </c>
+      <c r="I46" s="17">
+        <v>9</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="19">
+        <v>40631</v>
+      </c>
+      <c r="L46" s="18">
+        <v>12</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N46" s="19">
+        <v>40634</v>
+      </c>
+      <c r="O46" s="17">
+        <v>8</v>
+      </c>
+      <c r="P46" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>40637</v>
+      </c>
+      <c r="R46" s="17">
+        <v>6</v>
+      </c>
+      <c r="S46" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T46" s="19">
+        <v>40640</v>
+      </c>
+      <c r="U46" s="17">
+        <v>4</v>
+      </c>
+      <c r="V46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W46" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="X46" s="19">
+        <v>40644</v>
+      </c>
+      <c r="Y46" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="17">
+        <f>Y46+U46+R46+O46+L46+I46</f>
+        <v>44</v>
+      </c>
+      <c r="AA46" s="17">
+        <f>Z46/30*1</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="AB46" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="32">
+        <v>601</v>
+      </c>
+      <c r="C47" s="32">
+        <f>B47+100</f>
+        <v>701</v>
+      </c>
+      <c r="D47" s="32">
+        <v>379</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="19">
+        <v>40630</v>
+      </c>
+      <c r="H47" s="19">
+        <v>40629</v>
+      </c>
+      <c r="I47" s="17">
+        <v>19</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="19">
+        <v>40632</v>
+      </c>
+      <c r="L47" s="18">
+        <v>12</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="N47" s="19">
+        <v>40637</v>
+      </c>
+      <c r="O47" s="17">
+        <v>7</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>40640</v>
+      </c>
+      <c r="R47" s="17">
+        <v>11</v>
+      </c>
+      <c r="S47" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="T47" s="19">
+        <v>40644</v>
+      </c>
+      <c r="U47" s="17">
+        <v>7</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X47" s="19">
+        <v>40647</v>
+      </c>
+      <c r="Y47" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="17">
+        <f>Y47+U47+R47+O47+L47+I47</f>
+        <v>61</v>
+      </c>
+      <c r="AA47" s="17">
+        <f>Z47/30*1</f>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="AB47" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>602</v>
+      </c>
+      <c r="C48">
+        <f>B48+100</f>
+        <v>702</v>
+      </c>
+      <c r="D48">
+        <v>380</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="7">
+        <v>40611</v>
+      </c>
+      <c r="H48" s="7">
+        <v>40612</v>
+      </c>
+      <c r="I48" s="5">
+        <v>11</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="7">
+        <v>40615</v>
+      </c>
+      <c r="L48" s="8">
+        <v>14</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" s="7">
+        <v>40618</v>
+      </c>
+      <c r="O48" s="5">
+        <v>6</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>40619</v>
+      </c>
+      <c r="R48" s="5">
+        <v>5</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T48" s="7">
+        <v>40625</v>
+      </c>
+      <c r="U48" s="5">
+        <v>9</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48" s="7">
+        <v>40627</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="5">
+        <f>Y48+U48+R48+O48+L48+I48</f>
+        <v>48</v>
+      </c>
+      <c r="AA48" s="5">
+        <f>Z48/30*1</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>603</v>
+      </c>
+      <c r="C49">
+        <f>B49+100</f>
+        <v>703</v>
+      </c>
+      <c r="D49">
+        <v>381</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="19">
+        <v>40632</v>
+      </c>
+      <c r="H49" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I49" s="17">
+        <v>12</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="19">
+        <v>40627</v>
+      </c>
+      <c r="L49" s="18">
+        <v>11</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" s="19">
+        <v>40630</v>
+      </c>
+      <c r="O49" s="17">
+        <v>10</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>40634</v>
+      </c>
+      <c r="R49" s="17">
+        <v>8</v>
+      </c>
+      <c r="S49" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T49" s="19">
+        <v>40638</v>
+      </c>
+      <c r="U49" s="17">
+        <v>7</v>
+      </c>
+      <c r="V49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X49" s="19">
+        <v>40643</v>
+      </c>
+      <c r="Y49" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="17">
+        <f>Y49+U49+R49+O49+L49+I49</f>
+        <v>51</v>
+      </c>
+      <c r="AA49" s="17">
+        <f>Z49/30*1</f>
+        <v>1.7</v>
+      </c>
+      <c r="AB49" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="32">
+        <v>604</v>
+      </c>
+      <c r="C50" s="32">
+        <f>B50+100</f>
+        <v>704</v>
+      </c>
+      <c r="D50" s="32">
+        <v>382</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="19">
+        <v>40628</v>
+      </c>
+      <c r="H50" s="19">
+        <v>40624</v>
+      </c>
+      <c r="I50" s="17">
+        <v>10</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="19">
+        <v>40630</v>
+      </c>
+      <c r="L50" s="18">
+        <v>7</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N50" s="19">
+        <v>40632</v>
+      </c>
+      <c r="O50" s="17">
+        <v>8</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>40641</v>
+      </c>
+      <c r="R50" s="17">
+        <v>6</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="T50" s="19">
+        <v>40650</v>
+      </c>
+      <c r="U50" s="20">
+        <v>9</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X50" s="19">
+        <v>40652</v>
+      </c>
+      <c r="Y50" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="17">
+        <f>Y50+U50+R50+O50+L50+I50</f>
+        <v>43</v>
+      </c>
+      <c r="AA50" s="17">
+        <f>Z50/30*1</f>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="AB50" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>605</v>
+      </c>
+      <c r="C51">
+        <f>B51+100</f>
+        <v>705</v>
+      </c>
+      <c r="D51">
+        <v>383</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="4">
+        <v>40603</v>
+      </c>
+      <c r="H51" s="4">
+        <v>40624</v>
+      </c>
+      <c r="I51" s="1">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="4">
+        <v>40627</v>
+      </c>
+      <c r="L51" s="2">
+        <v>13</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51" s="4">
+        <v>40629</v>
+      </c>
+      <c r="O51" s="1">
+        <v>8</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>40631</v>
+      </c>
+      <c r="R51" s="1">
+        <v>7</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T51" s="4">
+        <v>40636</v>
+      </c>
+      <c r="U51" s="1">
+        <v>8</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="X51" s="4">
+        <v>40638</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="1">
+        <f>Y51+U51+R51+O51+L51+I51</f>
+        <v>56</v>
+      </c>
+      <c r="AA51" s="1">
+        <f>Z51/30*1</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>606</v>
+      </c>
+      <c r="C52">
+        <f>B52+100</f>
+        <v>706</v>
+      </c>
+      <c r="D52">
+        <v>384</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="7">
+        <v>40611</v>
+      </c>
+      <c r="H52" s="7">
+        <v>40614</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" s="7">
+        <v>40619</v>
+      </c>
+      <c r="L52" s="8">
+        <v>6</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="7">
+        <v>40616</v>
+      </c>
+      <c r="O52" s="5">
+        <v>8</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>40623</v>
+      </c>
+      <c r="R52" s="5">
+        <v>12</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T52" s="7">
+        <v>40625</v>
+      </c>
+      <c r="U52" s="5">
+        <v>5</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X52" s="7">
+        <v>40629</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="5">
+        <f>Y52+U52+R52+O52+L52+I52</f>
+        <v>36</v>
+      </c>
+      <c r="AA52" s="5">
+        <f>Z52/30*1</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>607</v>
+      </c>
+      <c r="C53">
+        <f>B53+100</f>
+        <v>707</v>
+      </c>
+      <c r="D53">
+        <v>385</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="4">
+        <v>40584</v>
+      </c>
+      <c r="H53" s="4">
+        <v>40584</v>
+      </c>
+      <c r="I53" s="1">
+        <v>19</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="4">
+        <v>40588</v>
+      </c>
+      <c r="L53" s="2">
+        <v>16</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="7">
+        <v>40591</v>
+      </c>
+      <c r="O53" s="1">
+        <v>14</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>40596</v>
+      </c>
+      <c r="R53" s="1">
+        <v>16</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T53" s="4">
+        <v>40603</v>
+      </c>
+      <c r="U53" s="1">
+        <v>12</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W53" s="4">
+        <v>40610</v>
+      </c>
+      <c r="X53" s="4">
+        <v>40621</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="1">
+        <f>Y53+U53+R53+O53+L53+I53</f>
         <v>79</v>
       </c>
-      <c r="B8">
-        <v>561</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>661</v>
-      </c>
-      <c r="D8">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>562</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>662</v>
-      </c>
-      <c r="D9">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10">
-        <v>563</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>663</v>
-      </c>
-      <c r="D10">
-        <v>341</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="AA53" s="1">
+        <f>Z53/30*1</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="32">
+        <v>608</v>
+      </c>
+      <c r="C54" s="32">
+        <f>B54+100</f>
+        <v>708</v>
+      </c>
+      <c r="D54" s="32">
+        <v>386</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>564</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>664</v>
-      </c>
-      <c r="D11">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12">
-        <v>565</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>665</v>
-      </c>
-      <c r="D12">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13">
-        <v>566</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>666</v>
-      </c>
-      <c r="D13">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>567</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>667</v>
-      </c>
-      <c r="D14">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <v>568</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>668</v>
-      </c>
-      <c r="D15">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
-        <v>569</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>669</v>
-      </c>
-      <c r="D16">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17">
-        <v>570</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>670</v>
-      </c>
-      <c r="D17">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18">
-        <v>571</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>671</v>
-      </c>
-      <c r="D18">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19">
-        <v>572</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-      <c r="D19">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20">
-        <v>573</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>673</v>
-      </c>
-      <c r="D20">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21">
-        <v>574</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>674</v>
-      </c>
-      <c r="D21">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>575</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-      <c r="D22">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>576</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>676</v>
-      </c>
-      <c r="D23">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>577</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>677</v>
-      </c>
-      <c r="D24">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>578</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>678</v>
-      </c>
-      <c r="D25">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26">
-        <v>579</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>679</v>
-      </c>
-      <c r="D26">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27">
-        <v>580</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>680</v>
-      </c>
-      <c r="D27">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <v>581</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-      <c r="D28">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29">
-        <v>582</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>682</v>
-      </c>
-      <c r="D29">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="F54" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="19">
+        <v>40633</v>
+      </c>
+      <c r="H54" s="19">
+        <v>40633</v>
+      </c>
+      <c r="I54" s="17">
+        <v>11</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="19">
+        <v>40636</v>
+      </c>
+      <c r="L54" s="18">
+        <v>12</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" s="19">
+        <v>40638</v>
+      </c>
+      <c r="O54" s="17">
+        <v>8</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>40643</v>
+      </c>
+      <c r="R54" s="17">
+        <v>9</v>
+      </c>
+      <c r="S54" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="T54" s="19">
+        <v>40645</v>
+      </c>
+      <c r="U54" s="17">
+        <v>3</v>
+      </c>
+      <c r="V54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W54" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X54" s="19">
+        <v>40647</v>
+      </c>
+      <c r="Y54" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="17">
+        <f>Y54+U54+R54+O54+L54+I54</f>
         <v>46</v>
       </c>
-      <c r="B30">
-        <v>583</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>683</v>
-      </c>
-      <c r="D30">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31">
-        <v>584</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-      <c r="D31">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32">
-        <v>585</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>685</v>
-      </c>
-      <c r="D32">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>586</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>686</v>
-      </c>
-      <c r="D33">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34">
-        <v>587</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>687</v>
-      </c>
-      <c r="D34">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35">
-        <v>588</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>688</v>
-      </c>
-      <c r="D35">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36">
-        <v>589</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>689</v>
-      </c>
-      <c r="D36">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37">
-        <v>590</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>690</v>
-      </c>
-      <c r="D37">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <v>591</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>691</v>
-      </c>
-      <c r="D38">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39">
-        <v>592</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>692</v>
-      </c>
-      <c r="D39">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40">
-        <v>593</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>693</v>
-      </c>
-      <c r="D40">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41">
-        <v>594</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>694</v>
-      </c>
-      <c r="D41">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42">
-        <v>595</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>695</v>
-      </c>
-      <c r="D42">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>596</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>696</v>
-      </c>
-      <c r="D43">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44">
-        <v>597</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>697</v>
-      </c>
-      <c r="D44">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45">
-        <v>598</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>698</v>
-      </c>
-      <c r="D45">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46">
-        <v>599</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>699</v>
-      </c>
-      <c r="D46">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47">
-        <v>600</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D47">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48">
-        <v>601</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>701</v>
-      </c>
-      <c r="D48">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49">
-        <v>602</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>702</v>
-      </c>
-      <c r="D49">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50">
-        <v>603</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>703</v>
-      </c>
-      <c r="D50">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51">
-        <v>604</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>704</v>
-      </c>
-      <c r="D51">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52">
-        <v>605</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="D52">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53">
-        <v>606</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="D53">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54">
-        <v>607</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>707</v>
-      </c>
-      <c r="D54">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
-        <v>149</v>
+      <c r="AA54" s="17">
+        <f>Z54/30*1</f>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="AB54" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>708</v>
+        <f>B55+100</f>
+        <v>709</v>
       </c>
       <c r="D55">
-        <v>386</v>
-      </c>
-      <c r="E55" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="4">
+        <v>40596</v>
+      </c>
+      <c r="H55" s="4">
+        <v>40596</v>
+      </c>
+      <c r="I55" s="1">
+        <v>17</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="7">
+        <v>40598</v>
+      </c>
+      <c r="L55" s="2">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" s="7">
+        <v>40603</v>
+      </c>
+      <c r="O55" s="1">
+        <v>11</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>40610</v>
+      </c>
+      <c r="R55" s="1">
+        <v>17</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T55" s="4">
+        <v>40619</v>
+      </c>
+      <c r="U55" s="1">
+        <v>20</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>50</v>
+      <c r="W55" s="4">
+        <v>40623</v>
+      </c>
+      <c r="X55" s="4">
+        <v>40624</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z55" s="1">
+        <f>Y55+U55+R55+O55+L55+I55</f>
+        <v>88</v>
+      </c>
+      <c r="AA55" s="1">
+        <f>Z55/30*1</f>
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B56">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>709</v>
+        <f>B56+100</f>
+        <v>710</v>
       </c>
       <c r="D56">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57">
-        <v>610</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>710</v>
-      </c>
-      <c r="D57">
         <v>388</v>
       </c>
+      <c r="F56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="7">
+        <v>40611</v>
+      </c>
+      <c r="H56" s="7">
+        <v>40613</v>
+      </c>
+      <c r="I56" s="5">
+        <v>7</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="7">
+        <v>40615</v>
+      </c>
+      <c r="L56" s="8">
+        <v>7</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N56" s="7">
+        <v>40617</v>
+      </c>
+      <c r="O56" s="5">
+        <v>5</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>40620</v>
+      </c>
+      <c r="R56" s="5">
+        <v>6</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T56" s="7">
+        <v>40623</v>
+      </c>
+      <c r="U56" s="5">
+        <v>6</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X56" s="7">
+        <v>40627</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="5">
+        <f>Y56+U56+R56+O56+L56+I56</f>
+        <v>34</v>
+      </c>
+      <c r="AA56" s="5">
+        <f>Z56/30*1</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AB56" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A84">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:AA56">
+    <sortCondition ref="A1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" display="mailto:allison626@Live.MissouriState.edu"/>
+    <hyperlink ref="F27" r:id="rId2" display="mailto:julie1982@Live.MissouriState.edu"/>
+    <hyperlink ref="F6" r:id="rId3" display="mailto:alicia008@Live.MissouriState.edu"/>
+    <hyperlink ref="F51" r:id="rId4"/>
+    <hyperlink ref="F43" r:id="rId5"/>
+    <hyperlink ref="F47" r:id="rId6"/>
+    <hyperlink ref="F31" r:id="rId7"/>
+    <hyperlink ref="F39" r:id="rId8"/>
+    <hyperlink ref="F42" r:id="rId9" display="mailto:molly292@Live.MissouriState.edu"/>
+    <hyperlink ref="F32" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2744,7 +6421,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B15"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3687,8 +7364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+    <sheetView topLeftCell="Q6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6935,7 +10612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>

--- a/longitudinal ratings/exp set up/progress track guide.xlsx
+++ b/longitudinal ratings/exp set up/progress track guide.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="13940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="tracking" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tracking!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tracking!$A$1:$AB$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="187">
   <si>
     <t>Date Long 1 Sent</t>
   </si>
@@ -587,7 +587,7 @@
     <t>match group</t>
   </si>
   <si>
-    <t>finished at deol</t>
+    <t>did not finish</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1072,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1097,6 +1095,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="381">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1781,11 +1781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1905,283 +1905,292 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="27">
         <v>556</v>
       </c>
-      <c r="C2">
-        <f>B2+100</f>
+      <c r="C2" s="27">
+        <f t="shared" ref="C2:C33" si="0">B2+100</f>
         <v>656</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="27">
         <v>334</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>40630</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>40629</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>40631</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>6</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="14">
         <v>40633</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="12">
         <v>5</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <v>40636</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="12">
         <v>7</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="14">
         <v>40638</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="12">
         <v>4</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="14">
         <v>40643</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="12">
         <v>3</v>
       </c>
-      <c r="Z2" s="14">
-        <f>Y2+U2+R2+O2+L2+I2</f>
+      <c r="Z2" s="12">
+        <f t="shared" ref="Z2:Z33" si="1">Y2+U2+R2+O2+L2+I2</f>
         <v>31</v>
       </c>
-      <c r="AA2" s="14">
-        <f>Z2/30*1</f>
+      <c r="AA2" s="12">
+        <f t="shared" ref="AA2:AA33" si="2">Z2/30*1</f>
         <v>1.0333333333333334</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B3">
         <v>557</v>
       </c>
       <c r="C3">
-        <f>B3+100</f>
+        <f t="shared" si="0"/>
         <v>657</v>
       </c>
       <c r="D3">
         <v>335</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>40584</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>40584</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>8</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14">
-        <f>Y3+U3+R3+O3+L3+I3</f>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AA3" s="14">
-        <f>Z3/30*1</f>
+      <c r="AA3" s="12">
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B4">
         <v>558</v>
       </c>
       <c r="C4">
-        <f>B4+100</f>
+        <f t="shared" si="0"/>
         <v>658</v>
       </c>
       <c r="D4">
         <v>336</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>40627</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>40624</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>7</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14">
-        <f>Y4+U4+R4+O4+L4+I4</f>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA4" s="14">
-        <f>Z4/30*1</f>
+      <c r="AA4" s="12">
+        <f t="shared" si="2"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>559</v>
       </c>
-      <c r="C5" s="29">
-        <f>B5+100</f>
+      <c r="C5" s="27">
+        <f t="shared" si="0"/>
         <v>659</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>337</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>40636</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>40636</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <v>9</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>40638</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <v>5</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <v>40643</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <v>4</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <v>40645</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="12">
         <v>5</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <v>40647</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="12">
         <v>5</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="14">
         <v>40651</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="12">
         <v>4</v>
       </c>
-      <c r="Z5" s="14">
-        <f>Y5+U5+R5+O5+L5+I5</f>
+      <c r="Z5" s="12">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AA5" s="14">
-        <f>Z5/30*1</f>
+      <c r="AA5" s="12">
+        <f t="shared" si="2"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2193,7 +2202,7 @@
         <v>560</v>
       </c>
       <c r="C6">
-        <f>B6+100</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="D6">
@@ -2214,7 +2223,7 @@
       <c r="J6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>40590</v>
       </c>
       <c r="L6" s="2">
@@ -2223,7 +2232,7 @@
       <c r="M6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>40594</v>
       </c>
       <c r="O6" s="1">
@@ -2232,7 +2241,7 @@
       <c r="P6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>40614</v>
       </c>
       <c r="R6" s="1">
@@ -2260,11 +2269,11 @@
         <v>3</v>
       </c>
       <c r="Z6" s="1">
-        <f>Y6+U6+R6+O6+L6+I6</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="AA6" s="1">
-        <f>Z6/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="AB6" s="1" t="s">
@@ -2272,412 +2281,424 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>561</v>
       </c>
-      <c r="C7" s="29">
-        <f>B7+100</f>
+      <c r="C7" s="27">
+        <f t="shared" si="0"/>
         <v>661</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>339</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>40611</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>40612</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>7</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>40615</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>14</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <v>40621</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>9</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>40630</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <v>7</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="14">
         <v>40650</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <v>6</v>
       </c>
-      <c r="V7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="17" t="s">
+      <c r="V7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="24">
         <v>40656</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="11">
         <v>2</v>
       </c>
-      <c r="Z7" s="14">
-        <f>Y7+U7+R7+O7+L7+I7</f>
+      <c r="Z7" s="12">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AA7" s="14">
-        <f>Z7/30*1</f>
+      <c r="AA7" s="12">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B8">
         <v>555</v>
       </c>
       <c r="C8">
-        <f>B8+100</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D8">
         <v>333</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>40611</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>40611</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>17</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>40621</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <v>14</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="18">
         <v>40623</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <v>11</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <v>40626</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="12">
         <v>13</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14">
-        <f>Y8+U8+R8+O8+L8+I8</f>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="AA8" s="14">
-        <f>Z8/30*1</f>
+      <c r="AA8" s="12">
+        <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>563</v>
       </c>
-      <c r="C9" s="29">
-        <f>B9+100</f>
+      <c r="C9" s="27">
+        <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>341</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>40633</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>40633</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <v>6</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>40636</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <v>5</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <v>40638</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <v>10</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>40643</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="12">
         <v>6</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="14">
         <v>40645</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="12">
         <v>5</v>
       </c>
-      <c r="V9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="14" t="s">
+      <c r="V9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="14">
         <v>40647</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="12">
         <v>3</v>
       </c>
-      <c r="Z9" s="14">
-        <f>Y9+U9+R9+O9+L9+I9</f>
+      <c r="Z9" s="12">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AA9" s="14">
-        <f>Z9/30*1</f>
+      <c r="AA9" s="12">
+        <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B10">
         <v>564</v>
       </c>
       <c r="C10">
-        <f>B10+100</f>
+        <f t="shared" si="0"/>
         <v>664</v>
       </c>
       <c r="D10">
         <v>342</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>40611</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>40614</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <v>6</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>40630</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <v>5</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14">
-        <f>Y10+U10+R10+O10+L10+I10</f>
+      <c r="N10" s="15"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AA10" s="14">
-        <f>Z10/30*1</f>
+      <c r="AA10" s="12">
+        <f t="shared" si="2"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="27">
         <v>565</v>
       </c>
-      <c r="C11">
-        <f>B11+100</f>
+      <c r="C11" s="27">
+        <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="27">
         <v>343</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>40630</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>40629</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>7</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <v>40632</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <v>9</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="14">
         <v>40634</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="12">
         <v>6</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <v>40637</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="12">
         <v>6</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="14">
         <v>40639</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="12">
         <v>6</v>
       </c>
-      <c r="V11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="17" t="s">
+      <c r="V11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="14">
         <v>40643</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="12">
         <v>3</v>
       </c>
-      <c r="Z11" s="14">
-        <f>Y11+U11+R11+O11+L11+I11</f>
+      <c r="Z11" s="12">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AA11" s="14">
-        <f>Z11/30*1</f>
+      <c r="AA11" s="12">
+        <f t="shared" si="2"/>
         <v>1.2333333333333334</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AB11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="27">
         <v>566</v>
       </c>
-      <c r="C12">
-        <f>B12+100</f>
+      <c r="C12" s="27">
+        <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="27">
         <v>344</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>109</v>
@@ -2740,11 +2761,11 @@
         <v>4</v>
       </c>
       <c r="Z12" s="1">
-        <f>Y12+U12+R12+O12+L12+I12</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AA12" s="1">
-        <f>Z12/30*1</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
@@ -2752,18 +2773,21 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="27">
         <v>567</v>
       </c>
-      <c r="C13">
-        <f>B13+100</f>
+      <c r="C13" s="27">
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="27">
         <v>345</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -2826,11 +2850,11 @@
         <v>2</v>
       </c>
       <c r="Z13" s="1">
-        <f>Y13+U13+R13+O13+L13+I13</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AA13" s="1">
-        <f>Z13/30*1</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB13" s="1" t="s">
@@ -2838,26 +2862,29 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="27">
         <v>568</v>
       </c>
-      <c r="C14">
-        <f>B14+100</f>
+      <c r="C14" s="27">
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="27">
         <v>346</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>40614</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>40615</v>
       </c>
       <c r="I14" s="5">
@@ -2866,16 +2893,16 @@
       <c r="J14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>40617</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>14</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>40620</v>
       </c>
       <c r="O14" s="5">
@@ -2884,7 +2911,7 @@
       <c r="P14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>40623</v>
       </c>
       <c r="R14" s="5">
@@ -2893,7 +2920,7 @@
       <c r="S14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>40626</v>
       </c>
       <c r="U14" s="5">
@@ -2905,18 +2932,18 @@
       <c r="W14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>40630</v>
       </c>
       <c r="Y14" s="5">
         <v>8</v>
       </c>
       <c r="Z14" s="5">
-        <f>Y14+U14+R14+O14+L14+I14</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="AA14" s="5">
-        <f>Z14/30*1</f>
+        <f t="shared" si="2"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="AB14" s="5" t="s">
@@ -2924,332 +2951,344 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="27">
         <v>569</v>
       </c>
-      <c r="C15">
-        <f>B15+100</f>
+      <c r="C15" s="27">
+        <f t="shared" si="0"/>
         <v>669</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="27">
         <v>347</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <v>40630</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <v>40630</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>11</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <v>40637</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <v>17</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="14">
         <v>40645</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="12">
         <v>5</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <v>40650</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="12">
         <v>5</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="S15" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <v>40653</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="12">
         <v>3</v>
       </c>
-      <c r="V15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="20" t="s">
+      <c r="V15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="14">
         <v>40658</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="12">
         <v>4</v>
       </c>
-      <c r="Z15" s="14">
-        <f>Y15+U15+R15+O15+L15+I15</f>
+      <c r="Z15" s="12">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AA15" s="14">
-        <f>Z15/30*1</f>
+      <c r="AA15" s="12">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB15" s="14" t="s">
+      <c r="AB15" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B16">
         <v>570</v>
       </c>
       <c r="C16">
-        <f>B16+100</f>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="D16">
         <v>348</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>40596</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <v>40596</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <v>14</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14">
-        <f>Y16+U16+R16+O16+L16+I16</f>
+      <c r="K16" s="15"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AA16" s="14">
-        <f>Z16/30*1</f>
+      <c r="AA16" s="12">
+        <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="27">
         <v>571</v>
       </c>
-      <c r="C17">
-        <f>B17+100</f>
+      <c r="C17" s="27">
+        <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="27">
         <v>349</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>40623</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <v>40623</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>14</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <v>40627</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <v>10</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="14">
         <v>40632</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="12">
         <v>11</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <v>40637</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="12">
         <v>7</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="14">
         <v>40639</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="12">
         <v>9</v>
       </c>
-      <c r="V17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="17" t="s">
+      <c r="V17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="14">
         <v>40643</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="12">
         <v>3</v>
       </c>
-      <c r="Z17" s="14">
-        <f>Y17+U17+R17+O17+L17+I17</f>
+      <c r="Z17" s="12">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="AA17" s="14">
-        <f>Z17/30*1</f>
+      <c r="AA17" s="12">
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="AB17" s="14" t="s">
+      <c r="AB17" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>572</v>
       </c>
-      <c r="C18" s="29">
-        <f>B18+100</f>
+      <c r="C18" s="27">
+        <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>350</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>40626</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <v>40624</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <v>9</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <v>40638</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <v>5</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="14">
         <v>40643</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="12">
         <v>34</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <v>40645</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="12">
         <v>9</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="S18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="14">
         <v>40650</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="12">
         <v>10</v>
       </c>
-      <c r="V18" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="17" t="s">
+      <c r="V18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="14">
         <v>40652</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="12">
         <v>7</v>
       </c>
-      <c r="Z18" s="14">
-        <f>Y18+U18+R18+O18+L18+I18</f>
+      <c r="Z18" s="12">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="AA18" s="14">
-        <f>Z18/30*1</f>
+      <c r="AA18" s="12">
+        <f t="shared" si="2"/>
         <v>2.4666666666666668</v>
       </c>
-      <c r="AB18" s="14" t="s">
+      <c r="AB18" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="27">
         <v>573</v>
       </c>
-      <c r="C19">
-        <f>B19+100</f>
+      <c r="C19" s="27">
+        <f t="shared" si="0"/>
         <v>673</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="27">
         <v>351</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>72</v>
@@ -3272,7 +3311,7 @@
       <c r="L19" s="2">
         <v>14</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>83</v>
       </c>
       <c r="N19" s="4">
@@ -3312,11 +3351,11 @@
         <v>5</v>
       </c>
       <c r="Z19" s="1">
-        <f>Y19+U19+R19+O19+L19+I19</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="AA19" s="1">
-        <f>Z19/30*1</f>
+        <f t="shared" si="2"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="AB19" s="1" t="s">
@@ -3324,26 +3363,29 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="27">
         <v>574</v>
       </c>
-      <c r="C20">
-        <f>B20+100</f>
+      <c r="C20" s="27">
+        <f t="shared" si="0"/>
         <v>674</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="27">
         <v>352</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>40611</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>40611</v>
       </c>
       <c r="I20" s="5">
@@ -3352,16 +3394,16 @@
       <c r="J20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>40615</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>8</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>40618</v>
       </c>
       <c r="O20" s="5">
@@ -3370,7 +3412,7 @@
       <c r="P20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>40620</v>
       </c>
       <c r="R20" s="5">
@@ -3379,7 +3421,7 @@
       <c r="S20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6">
         <v>40624</v>
       </c>
       <c r="U20" s="5">
@@ -3391,18 +3433,18 @@
       <c r="W20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <v>40627</v>
       </c>
       <c r="Y20" s="5">
         <v>3</v>
       </c>
       <c r="Z20" s="5">
-        <f>Y20+U20+R20+O20+L20+I20</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="AA20" s="5">
-        <f>Z20/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="AB20" s="5" t="s">
@@ -3410,18 +3452,21 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="27">
         <v>575</v>
       </c>
-      <c r="C21">
-        <f>B21+100</f>
+      <c r="C21" s="27">
+        <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="27">
         <v>353</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
@@ -3447,7 +3492,7 @@
       <c r="M21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>40592</v>
       </c>
       <c r="O21" s="1">
@@ -3456,7 +3501,7 @@
       <c r="P21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>40596</v>
       </c>
       <c r="R21" s="1">
@@ -3484,11 +3529,11 @@
         <v>3</v>
       </c>
       <c r="Z21" s="1">
-        <f>Y21+U21+R21+O21+L21+I21</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AA21" s="1">
-        <f>Z21/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="AB21" s="1" t="s">
@@ -3496,18 +3541,21 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="27">
         <v>576</v>
       </c>
-      <c r="C22">
-        <f>B22+100</f>
+      <c r="C22" s="27">
+        <f t="shared" si="0"/>
         <v>676</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="27">
         <v>354</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
@@ -3524,16 +3572,16 @@
       <c r="J22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>40617</v>
       </c>
       <c r="L22" s="2">
         <v>6</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>40624</v>
       </c>
       <c r="O22" s="1">
@@ -3557,7 +3605,7 @@
       <c r="U22" s="1">
         <v>9</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="8" t="s">
         <v>56</v>
       </c>
       <c r="W22" s="5" t="s">
@@ -3570,11 +3618,11 @@
         <v>2</v>
       </c>
       <c r="Z22" s="1">
-        <f>Y22+U22+R22+O22+L22+I22</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AA22" s="1">
-        <f>Z22/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="AB22" s="1" t="s">
@@ -3582,18 +3630,21 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="27">
         <v>577</v>
       </c>
-      <c r="C23">
-        <f>B23+100</f>
+      <c r="C23" s="27">
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="27">
         <v>355</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>31</v>
@@ -3619,7 +3670,7 @@
       <c r="M23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>40596</v>
       </c>
       <c r="O23" s="1">
@@ -3628,7 +3679,7 @@
       <c r="P23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>40624</v>
       </c>
       <c r="R23" s="1">
@@ -3656,11 +3707,11 @@
         <v>3</v>
       </c>
       <c r="Z23" s="1">
-        <f>Y23+U23+R23+O23+L23+I23</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="AA23" s="1">
-        <f>Z23/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="AB23" s="1" t="s">
@@ -3668,142 +3719,151 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B24">
         <v>578</v>
       </c>
       <c r="C24">
-        <f>B24+100</f>
+        <f t="shared" si="0"/>
         <v>678</v>
       </c>
       <c r="D24">
         <v>356</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="14">
         <v>40625</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <v>40624</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <v>7</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14">
-        <f>Y24+U24+R24+O24+L24+I24</f>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA24" s="14">
-        <f>Z24/30*1</f>
+      <c r="AA24" s="12">
+        <f t="shared" si="2"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B25">
         <v>579</v>
       </c>
       <c r="C25">
-        <f>B25+100</f>
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
       <c r="D25">
         <v>357</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <v>40630</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <v>40624</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>6</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="14">
         <v>40629</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="13">
         <v>7</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="14">
         <v>40644</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="12">
         <v>7</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="14">
         <v>40646</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="12">
         <v>5</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14">
-        <f>Y25+U25+R25+O25+L25+I25</f>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AA25" s="14">
-        <f>Z25/30*1</f>
+      <c r="AA25" s="12">
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="27">
         <v>580</v>
       </c>
-      <c r="C26">
-        <f>B26+100</f>
+      <c r="C26" s="27">
+        <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="27">
         <v>358</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>79</v>
@@ -3820,16 +3880,16 @@
       <c r="J26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>40617</v>
       </c>
       <c r="L26" s="2">
         <v>6</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>40619</v>
       </c>
       <c r="O26" s="1">
@@ -3866,11 +3926,11 @@
         <v>4</v>
       </c>
       <c r="Z26" s="1">
-        <f>Y26+U26+R26+O26+L26+I26</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="AA26" s="1">
-        <f>Z26/30*1</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="AB26" s="1" t="s">
@@ -3878,18 +3938,21 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="27">
         <v>581</v>
       </c>
-      <c r="C27">
-        <f>B27+100</f>
+      <c r="C27" s="27">
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="27">
         <v>359</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>25</v>
@@ -3952,11 +4015,11 @@
         <v>3</v>
       </c>
       <c r="Z27" s="1">
-        <f>Y27+U27+R27+O27+L27+I27</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AA27" s="1">
-        <f>Z27/30*1</f>
+        <f t="shared" si="2"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="AB27" s="1" t="s">
@@ -3964,1594 +4027,1630 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>582</v>
       </c>
-      <c r="C28" s="29">
-        <f>B28+100</f>
+      <c r="C28" s="27">
+        <f t="shared" si="0"/>
         <v>682</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <v>360</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="14">
         <v>40633</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="14">
         <v>40624</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <v>10</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="14">
         <v>40627</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="13">
         <v>6</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="14">
         <v>40633</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="12">
         <v>6</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="14">
         <v>40637</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="12">
         <v>5</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="14">
         <v>40650</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="12">
         <v>5</v>
       </c>
-      <c r="V28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="17" t="s">
+      <c r="V28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28" s="14">
         <v>40652</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="12">
         <v>2</v>
       </c>
-      <c r="Z28" s="14">
-        <f>Y28+U28+R28+O28+L28+I28</f>
+      <c r="Z28" s="12">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AA28" s="14">
-        <f>Z28/30*1</f>
+      <c r="AA28" s="12">
+        <f t="shared" si="2"/>
         <v>1.1333333333333333</v>
       </c>
-      <c r="AB28" s="14" t="s">
+      <c r="AB28" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>583</v>
       </c>
-      <c r="C29" s="29">
-        <f>B29+100</f>
+      <c r="C29" s="27">
+        <f t="shared" si="0"/>
         <v>683</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <v>361</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>40596</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <v>40596</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <v>10</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="18">
         <v>40633</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="13">
         <v>8</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="18">
         <v>40637</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="12">
         <v>7</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P29" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="14">
         <v>40645</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="12">
         <v>6</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="14">
         <v>40648</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="12">
         <v>6</v>
       </c>
-      <c r="V29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="17" t="s">
+      <c r="V29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29" s="14">
         <v>40650</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="12">
         <v>3</v>
       </c>
-      <c r="Z29" s="14">
-        <f>Y29+U29+R29+O29+L29+I29</f>
+      <c r="Z29" s="12">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA29" s="14">
-        <f>Z29/30*1</f>
+      <c r="AA29" s="12">
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AB29" s="14" t="s">
+      <c r="AB29" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <v>584</v>
       </c>
-      <c r="C30" s="29">
-        <f>B30+100</f>
+      <c r="C30" s="27">
+        <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="27">
         <v>362</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>40635</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>40634</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="15">
         <v>5</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="18">
         <v>40637</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="22">
         <v>4</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="18">
         <v>40639</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="15">
         <v>3</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q30" s="18">
         <v>40643</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="15">
         <v>3</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S30" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T30" s="20">
+      <c r="T30" s="18">
         <v>40645</v>
       </c>
-      <c r="U30" s="17">
+      <c r="U30" s="15">
         <v>3</v>
       </c>
-      <c r="V30" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="14" t="s">
+      <c r="V30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="18">
         <v>40647</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Y30" s="15">
         <v>3</v>
       </c>
-      <c r="Z30" s="14">
-        <f>Y30+U30+R30+O30+L30+I30</f>
+      <c r="Z30" s="12">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA30" s="14">
-        <f>Z30/30*1</f>
+      <c r="AA30" s="12">
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="AB30" s="17" t="s">
+      <c r="AB30" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="27">
         <v>585</v>
       </c>
-      <c r="C31" s="29">
-        <f>B31+100</f>
+      <c r="C31" s="27">
+        <f t="shared" si="0"/>
         <v>685</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="27">
         <v>363</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>40635</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>40634</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>11</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="18">
         <v>40637</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="22">
         <v>19</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="18">
         <v>40640</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="15">
         <v>11</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="18">
         <v>40643</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="15">
         <v>9</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="S31" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T31" s="18">
         <v>40645</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="15">
         <v>15</v>
       </c>
-      <c r="V31" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="14" t="s">
+      <c r="V31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="X31" s="20">
+      <c r="X31" s="18">
         <v>40647</v>
       </c>
-      <c r="Y31" s="17">
+      <c r="Y31" s="15">
         <v>4</v>
       </c>
-      <c r="Z31" s="14">
-        <f>Y31+U31+R31+O31+L31+I31</f>
+      <c r="Z31" s="12">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="AA31" s="14">
-        <f>Z31/30*1</f>
+      <c r="AA31" s="12">
+        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB31" s="17" t="s">
+      <c r="AB31" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B32">
         <v>586</v>
       </c>
       <c r="C32">
-        <f>B32+100</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="D32">
         <v>364</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="14">
         <v>40583</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="14">
         <v>40583</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <v>7</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="14">
         <v>40588</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="13">
         <v>6</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="18">
         <v>40598</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="12">
         <v>4</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="18">
         <v>40659</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="12">
         <v>3</v>
       </c>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14">
-        <f>Y32+U32+R32+O32+L32+I32</f>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AA32" s="14">
-        <f>Z32/30*1</f>
+      <c r="AA32" s="12">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="27">
         <v>587</v>
       </c>
-      <c r="C33">
-        <f>B33+100</f>
+      <c r="C33" s="27">
+        <f t="shared" si="0"/>
         <v>687</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="27">
         <v>365</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="14">
         <v>40623</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="14">
         <v>40623</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <v>10</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="14">
         <v>40626</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="13">
         <v>6</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="14">
         <v>40630</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="12">
         <v>5</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="P33" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="14">
         <v>40636</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="12">
         <v>4</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="S33" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="14">
         <v>40643</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="12">
         <v>4</v>
       </c>
-      <c r="V33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="17" t="s">
+      <c r="V33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="X33" s="16">
+      <c r="X33" s="14">
         <v>40646</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y33" s="12">
         <v>2</v>
       </c>
-      <c r="Z33" s="14">
-        <f>Y33+U33+R33+O33+L33+I33</f>
+      <c r="Z33" s="12">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AA33" s="14">
-        <f>Z33/30*1</f>
+      <c r="AA33" s="12">
+        <f t="shared" si="2"/>
         <v>1.0333333333333334</v>
       </c>
-      <c r="AB33" s="14" t="s">
+      <c r="AB33" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B34">
         <v>588</v>
       </c>
       <c r="C34">
-        <f>B34+100</f>
+        <f t="shared" ref="C34:C65" si="3">B34+100</f>
         <v>688</v>
       </c>
       <c r="D34">
         <v>366</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14">
         <v>40596</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>40597</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <v>10</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="18">
         <v>40602</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="13">
         <v>12</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14">
-        <f>Y34+U34+R34+O34+L34+I34</f>
+      <c r="N34" s="15"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12">
+        <f t="shared" ref="Z34:Z65" si="4">Y34+U34+R34+O34+L34+I34</f>
         <v>22</v>
       </c>
-      <c r="AA34" s="14">
-        <f>Z34/30*1</f>
+      <c r="AA34" s="12">
+        <f t="shared" ref="AA34:AA65" si="5">Z34/30*1</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="27">
         <v>589</v>
       </c>
-      <c r="C35" s="29">
-        <f>B35+100</f>
+      <c r="C35" s="27">
+        <f t="shared" si="3"/>
         <v>689</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="27">
         <v>367</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="14">
         <v>40604</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="14">
         <v>40624</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="12">
         <v>11</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="14">
         <v>40629</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="13">
         <v>15</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="14">
         <v>40633</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="12">
         <v>20</v>
       </c>
-      <c r="P35" s="17" t="s">
+      <c r="P35" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="14">
         <v>40638</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="12">
         <v>16</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="14">
         <v>40645</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="12">
         <v>15</v>
       </c>
-      <c r="V35" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="14" t="s">
+      <c r="V35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="X35" s="16">
+      <c r="X35" s="14">
         <v>40648</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y35" s="12">
         <v>5</v>
       </c>
-      <c r="Z35" s="14">
-        <f>Y35+U35+R35+O35+L35+I35</f>
+      <c r="Z35" s="12">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="AA35" s="14">
-        <f>Z35/30*1</f>
+      <c r="AA35" s="12">
+        <f t="shared" si="5"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="AB35" s="14" t="s">
+      <c r="AB35" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B36">
         <v>590</v>
       </c>
       <c r="C36">
-        <f>B36+100</f>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="D36">
         <v>368</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="14">
         <v>40636</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="14">
         <v>40636</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="12">
         <v>19</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14">
-        <f>Y36+U36+R36+O36+L36+I36</f>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AA36" s="14">
-        <f>Z36/30*1</f>
+      <c r="AA36" s="12">
+        <f t="shared" si="5"/>
         <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B37">
         <v>591</v>
       </c>
       <c r="C37">
-        <f>B37+100</f>
+        <f t="shared" si="3"/>
         <v>691</v>
       </c>
       <c r="D37">
         <v>369</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>40629</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="12">
         <v>7</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <v>40632</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="13">
         <v>8</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14">
-        <f>Y37+U37+R37+O37+L37+I37</f>
+      <c r="N37" s="15"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AA37" s="14">
-        <f>Z37/30*1</f>
+      <c r="AA37" s="12">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B38">
         <v>592</v>
       </c>
       <c r="C38">
-        <f>B38+100</f>
+        <f t="shared" si="3"/>
         <v>692</v>
       </c>
       <c r="D38">
         <v>370</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <v>40624</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="14">
         <v>40624</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="12">
         <v>12</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="14">
         <v>40634</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="13">
         <v>12</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14">
-        <f>Y38+U38+R38+O38+L38+I38</f>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="AA38" s="14">
-        <f>Z38/30*1</f>
+      <c r="AA38" s="12">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="27">
         <v>593</v>
       </c>
-      <c r="C39" s="29">
-        <f>B39+100</f>
+      <c r="C39" s="27">
+        <f t="shared" si="3"/>
         <v>693</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <v>371</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="25" t="s">
+      <c r="E39" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="14">
         <v>40633</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="14">
         <v>40633</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="12">
         <v>10</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="14">
         <v>40636</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="13">
         <v>10</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="14">
         <v>40638</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="12">
         <v>6</v>
       </c>
-      <c r="P39" s="17" t="s">
+      <c r="P39" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="14">
         <v>40644</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="12">
         <v>9</v>
       </c>
-      <c r="S39" s="17" t="s">
+      <c r="S39" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="14">
         <v>40646</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="12">
         <v>5</v>
       </c>
-      <c r="V39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W39" s="17" t="s">
+      <c r="V39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="X39" s="16">
+      <c r="X39" s="14">
         <v>40649</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y39" s="12">
         <v>14</v>
       </c>
-      <c r="Z39" s="14">
-        <f>Y39+U39+R39+O39+L39+I39</f>
+      <c r="Z39" s="12">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="AA39" s="14">
-        <f>Z39/30*1</f>
+      <c r="AA39" s="12">
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
-      <c r="AB39" s="14" t="s">
+      <c r="AB39" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="27">
         <v>594</v>
       </c>
-      <c r="C40" s="29">
-        <f>B40+100</f>
+      <c r="C40" s="27">
+        <f t="shared" si="3"/>
         <v>694</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="27">
         <v>372</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="17" t="s">
+      <c r="E40" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>40633</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>40634</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="15">
         <v>15</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="18">
         <v>40638</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="22">
         <v>12</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="18">
         <v>40644</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="15">
         <v>12</v>
       </c>
-      <c r="P40" s="17" t="s">
+      <c r="P40" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="Q40" s="20">
+      <c r="Q40" s="18">
         <v>40648</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="15">
         <v>9</v>
       </c>
-      <c r="S40" s="17" t="s">
+      <c r="S40" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="T40" s="20">
+      <c r="T40" s="18">
         <v>40651</v>
       </c>
-      <c r="U40" s="17">
+      <c r="U40" s="15">
         <v>9</v>
       </c>
-      <c r="V40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="W40" s="17" t="s">
+      <c r="V40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="X40" s="20">
+      <c r="X40" s="18">
         <v>40659</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Y40" s="15">
         <v>3</v>
       </c>
-      <c r="Z40" s="14">
-        <f>Y40+U40+R40+O40+L40+I40</f>
+      <c r="Z40" s="12">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AA40" s="14">
-        <f>Z40/30*1</f>
+      <c r="AA40" s="12">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB40" s="17" t="s">
+      <c r="AB40" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B41">
         <v>595</v>
       </c>
       <c r="C41">
-        <f>B41+100</f>
+        <f t="shared" si="3"/>
         <v>695</v>
       </c>
       <c r="D41">
         <v>373</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="14">
         <v>40629</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="14">
         <v>40624</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="12">
         <v>11</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="14">
         <v>40631</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="13">
         <v>12</v>
       </c>
-      <c r="M41" s="17" t="s">
+      <c r="M41" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14">
-        <f>Y41+U41+R41+O41+L41+I41</f>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AA41" s="14">
-        <f>Z41/30*1</f>
+      <c r="AA41" s="12">
+        <f t="shared" si="5"/>
         <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="27">
         <v>596</v>
       </c>
-      <c r="C42" s="29">
-        <f>B42+100</f>
+      <c r="C42" s="27">
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="27">
         <v>374</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="E42" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="14">
         <v>40583</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="14">
         <v>40583</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="12">
         <v>12</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="14">
         <v>40587</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="13">
         <v>14</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="18">
         <v>40600</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="12">
         <v>12</v>
       </c>
-      <c r="P42" s="17" t="s">
+      <c r="P42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="14">
         <v>40603</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="12">
         <v>9</v>
       </c>
-      <c r="S42" s="14" t="s">
+      <c r="S42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="14">
         <v>40649</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U42" s="12">
         <v>12</v>
       </c>
-      <c r="V42" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W42" s="17" t="s">
+      <c r="V42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="X42" s="27">
+      <c r="X42" s="25">
         <v>40652</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="10">
         <v>3</v>
       </c>
-      <c r="Z42" s="14">
-        <f>Y42+U42+R42+O42+L42+I42</f>
+      <c r="Z42" s="12">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="AA42" s="14">
-        <f>Z42/30*1</f>
+      <c r="AA42" s="12">
+        <f t="shared" si="5"/>
         <v>2.0666666666666669</v>
       </c>
-      <c r="AB42" s="14" t="s">
+      <c r="AB42" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="27">
         <v>597</v>
       </c>
-      <c r="C43">
-        <f>B43+100</f>
+      <c r="C43" s="27">
+        <f t="shared" si="3"/>
         <v>697</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="27">
         <v>375</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="14">
         <v>40623</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="14">
         <v>40623</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="12">
         <v>7</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="14">
         <v>40627</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="13">
         <v>7</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="14">
         <v>40631</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="12">
         <v>6</v>
       </c>
-      <c r="P43" s="17" t="s">
+      <c r="P43" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="14">
         <v>40635</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="12">
         <v>8</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="S43" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="14">
         <v>40637</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="12">
         <v>4</v>
       </c>
-      <c r="V43" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" s="17" t="s">
+      <c r="V43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X43" s="14">
         <v>40646</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y43" s="12">
         <v>3</v>
       </c>
-      <c r="Z43" s="14">
-        <f>Y43+U43+R43+O43+L43+I43</f>
+      <c r="Z43" s="12">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AA43" s="14">
-        <f>Z43/30*1</f>
+      <c r="AA43" s="12">
+        <f t="shared" si="5"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AB43" s="14" t="s">
+      <c r="AB43" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B44">
         <v>598</v>
       </c>
       <c r="C44">
-        <f>B44+100</f>
+        <f t="shared" si="3"/>
         <v>698</v>
       </c>
       <c r="D44">
         <v>376</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="14">
         <v>40635</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="14">
         <v>40635</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="12">
         <v>13</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="14">
         <v>40643</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="13">
         <v>13</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="14">
         <v>40647</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="12">
         <v>13</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="P44" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14">
-        <f>Y44+U44+R44+O44+L44+I44</f>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="AA44" s="14">
-        <f>Z44/30*1</f>
+      <c r="AA44" s="12">
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="27">
         <v>599</v>
       </c>
-      <c r="C45">
-        <f>B45+100</f>
+      <c r="C45" s="27">
+        <f t="shared" si="3"/>
         <v>699</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="27">
         <v>377</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="E45" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="14">
         <v>40641</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="14">
         <v>40641</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="12">
         <v>9</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="18">
         <v>40644</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="13">
         <v>9</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="14">
         <v>40646</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="12">
         <v>14</v>
       </c>
-      <c r="P45" s="17" t="s">
+      <c r="P45" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="14">
         <v>40650</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="12">
         <v>9</v>
       </c>
-      <c r="S45" s="17" t="s">
+      <c r="S45" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="T45" s="16">
+      <c r="T45" s="14">
         <v>40652</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="12">
         <v>5</v>
       </c>
-      <c r="V45" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" s="20" t="s">
+      <c r="V45" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="X45" s="16">
+      <c r="X45" s="14">
         <v>40655</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y45" s="12">
         <v>2</v>
       </c>
-      <c r="Z45" s="14">
-        <f>Y45+U45+R45+O45+L45+I45</f>
+      <c r="Z45" s="12">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="AA45" s="14">
-        <f>Z45/30*1</f>
+      <c r="AA45" s="12">
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="AB45" s="14" t="s">
+      <c r="AB45" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="27">
         <v>600</v>
       </c>
-      <c r="C46">
-        <f>B46+100</f>
+      <c r="C46" s="27">
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="27">
         <v>378</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="E46" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>40630</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="14">
         <v>40629</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="12">
         <v>9</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="14">
         <v>40631</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="13">
         <v>12</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="14">
         <v>40634</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="12">
         <v>8</v>
       </c>
-      <c r="P46" s="17" t="s">
+      <c r="P46" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="14">
         <v>40637</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="12">
         <v>6</v>
       </c>
-      <c r="S46" s="17" t="s">
+      <c r="S46" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="T46" s="16">
+      <c r="T46" s="14">
         <v>40640</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="12">
         <v>4</v>
       </c>
-      <c r="V46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="17" t="s">
+      <c r="V46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="X46" s="16">
+      <c r="X46" s="14">
         <v>40644</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y46" s="12">
         <v>5</v>
       </c>
-      <c r="Z46" s="14">
-        <f>Y46+U46+R46+O46+L46+I46</f>
+      <c r="Z46" s="12">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="AA46" s="14">
-        <f>Z46/30*1</f>
+      <c r="AA46" s="12">
+        <f t="shared" si="5"/>
         <v>1.4666666666666666</v>
       </c>
-      <c r="AB46" s="14" t="s">
+      <c r="AB46" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="27">
         <v>601</v>
       </c>
-      <c r="C47" s="29">
-        <f>B47+100</f>
+      <c r="C47" s="27">
+        <f t="shared" si="3"/>
         <v>701</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="27">
         <v>379</v>
       </c>
-      <c r="E47" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="23" t="s">
+      <c r="E47" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>40630</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="14">
         <v>40629</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="12">
         <v>19</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="14">
         <v>40632</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="13">
         <v>12</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M47" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="14">
         <v>40637</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="12">
         <v>7</v>
       </c>
-      <c r="P47" s="17" t="s">
+      <c r="P47" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="14">
         <v>40640</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="12">
         <v>11</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="S47" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="T47" s="16">
+      <c r="T47" s="14">
         <v>40644</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="12">
         <v>7</v>
       </c>
-      <c r="V47" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="17" t="s">
+      <c r="V47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="X47" s="16">
+      <c r="X47" s="14">
         <v>40647</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="12">
         <v>5</v>
       </c>
-      <c r="Z47" s="14">
-        <f>Y47+U47+R47+O47+L47+I47</f>
+      <c r="Z47" s="12">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="AA47" s="14">
-        <f>Z47/30*1</f>
+      <c r="AA47" s="12">
+        <f t="shared" si="5"/>
         <v>2.0333333333333332</v>
       </c>
-      <c r="AB47" s="14" t="s">
+      <c r="AB47" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="27">
         <v>602</v>
       </c>
-      <c r="C48">
-        <f>B48+100</f>
+      <c r="C48" s="27">
+        <f t="shared" si="3"/>
         <v>702</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="27">
         <v>380</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>40611</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>40612</v>
       </c>
       <c r="I48" s="5">
@@ -5560,16 +5659,16 @@
       <c r="J48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>40615</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="7">
         <v>14</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>40618</v>
       </c>
       <c r="O48" s="5">
@@ -5578,7 +5677,7 @@
       <c r="P48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="6">
         <v>40619</v>
       </c>
       <c r="R48" s="5">
@@ -5587,7 +5686,7 @@
       <c r="S48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="6">
         <v>40625</v>
       </c>
       <c r="U48" s="5">
@@ -5599,18 +5698,18 @@
       <c r="W48" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X48" s="7">
+      <c r="X48" s="6">
         <v>40627</v>
       </c>
       <c r="Y48" s="5">
         <v>3</v>
       </c>
       <c r="Z48" s="5">
-        <f>Y48+U48+R48+O48+L48+I48</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="AA48" s="5">
-        <f>Z48/30*1</f>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
       <c r="AB48" s="5" t="s">
@@ -5618,193 +5717,199 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="27">
         <v>603</v>
       </c>
-      <c r="C49">
-        <f>B49+100</f>
+      <c r="C49" s="27">
+        <f t="shared" si="3"/>
         <v>703</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="27">
         <v>381</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="14">
         <v>40632</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="14">
         <v>40624</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="12">
         <v>12</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="14">
         <v>40627</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="13">
         <v>11</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="14">
         <v>40630</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="12">
         <v>10</v>
       </c>
-      <c r="P49" s="17" t="s">
+      <c r="P49" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49" s="14">
         <v>40634</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="12">
         <v>8</v>
       </c>
-      <c r="S49" s="17" t="s">
+      <c r="S49" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="T49" s="16">
+      <c r="T49" s="14">
         <v>40638</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="12">
         <v>7</v>
       </c>
-      <c r="V49" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="17" t="s">
+      <c r="V49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X49" s="16">
+      <c r="X49" s="14">
         <v>40643</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y49" s="12">
         <v>3</v>
       </c>
-      <c r="Z49" s="14">
-        <f>Y49+U49+R49+O49+L49+I49</f>
+      <c r="Z49" s="12">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="AA49" s="14">
-        <f>Z49/30*1</f>
+      <c r="AA49" s="12">
+        <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
-      <c r="AB49" s="14" t="s">
+      <c r="AB49" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>604</v>
       </c>
-      <c r="C50" s="29">
-        <f>B50+100</f>
+      <c r="C50" s="27">
+        <f t="shared" si="3"/>
         <v>704</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="27">
         <v>382</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="14" t="s">
+      <c r="E50" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="14">
         <v>40628</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="14">
         <v>40624</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="12">
         <v>10</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="14">
         <v>40630</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="13">
         <v>7</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N50" s="14">
         <v>40632</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="12">
         <v>8</v>
       </c>
-      <c r="P50" s="17" t="s">
+      <c r="P50" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="14">
         <v>40641</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="12">
         <v>6</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="S50" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="T50" s="16">
+      <c r="T50" s="14">
         <v>40650</v>
       </c>
-      <c r="U50" s="17">
+      <c r="U50" s="15">
         <v>9</v>
       </c>
-      <c r="V50" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W50" s="17" t="s">
+      <c r="V50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="X50" s="16">
+      <c r="X50" s="14">
         <v>40652</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y50" s="12">
         <v>3</v>
       </c>
-      <c r="Z50" s="14">
-        <f>Y50+U50+R50+O50+L50+I50</f>
+      <c r="Z50" s="12">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="AA50" s="14">
-        <f>Z50/30*1</f>
+      <c r="AA50" s="12">
+        <f t="shared" si="5"/>
         <v>1.4333333333333333</v>
       </c>
-      <c r="AB50" s="14" t="s">
+      <c r="AB50" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="27">
         <v>605</v>
       </c>
-      <c r="C51">
-        <f>B51+100</f>
+      <c r="C51" s="27">
+        <f t="shared" si="3"/>
         <v>705</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="27">
         <v>383</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>116</v>
@@ -5867,11 +5972,11 @@
         <v>3</v>
       </c>
       <c r="Z51" s="1">
-        <f>Y51+U51+R51+O51+L51+I51</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="AA51" s="1">
-        <f>Z51/30*1</f>
+        <f t="shared" si="5"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="AB51" s="1" t="s">
@@ -5879,26 +5984,29 @@
       </c>
     </row>
     <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="27">
         <v>606</v>
       </c>
-      <c r="C52">
-        <f>B52+100</f>
+      <c r="C52" s="27">
+        <f t="shared" si="3"/>
         <v>706</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="27">
         <v>384</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="E52" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>40611</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>40614</v>
       </c>
       <c r="I52" s="5">
@@ -5907,16 +6015,16 @@
       <c r="J52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <v>40619</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="7">
         <v>6</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="6">
         <v>40616</v>
       </c>
       <c r="O52" s="5">
@@ -5925,7 +6033,7 @@
       <c r="P52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="6">
         <v>40623</v>
       </c>
       <c r="R52" s="5">
@@ -5934,7 +6042,7 @@
       <c r="S52" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="6">
         <v>40625</v>
       </c>
       <c r="U52" s="5">
@@ -5946,18 +6054,18 @@
       <c r="W52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="6">
         <v>40629</v>
       </c>
       <c r="Y52" s="5">
         <v>2</v>
       </c>
       <c r="Z52" s="5">
-        <f>Y52+U52+R52+O52+L52+I52</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="AA52" s="5">
-        <f>Z52/30*1</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="AB52" s="5" t="s">
@@ -5965,18 +6073,21 @@
       </c>
     </row>
     <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="27">
         <v>607</v>
       </c>
-      <c r="C53">
-        <f>B53+100</f>
+      <c r="C53" s="27">
+        <f t="shared" si="3"/>
         <v>707</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="27">
         <v>385</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>35</v>
@@ -6002,7 +6113,7 @@
       <c r="M53" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>40591</v>
       </c>
       <c r="O53" s="1">
@@ -6011,7 +6122,7 @@
       <c r="P53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="6">
         <v>40596</v>
       </c>
       <c r="R53" s="1">
@@ -6039,11 +6150,11 @@
         <v>2</v>
       </c>
       <c r="Z53" s="1">
-        <f>Y53+U53+R53+O53+L53+I53</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="AA53" s="1">
-        <f>Z53/30*1</f>
+        <f t="shared" si="5"/>
         <v>2.6333333333333333</v>
       </c>
       <c r="AB53" s="1" t="s">
@@ -6051,107 +6162,110 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="27">
         <v>608</v>
       </c>
-      <c r="C54" s="29">
-        <f>B54+100</f>
+      <c r="C54" s="27">
+        <f t="shared" si="3"/>
         <v>708</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <v>386</v>
       </c>
-      <c r="E54" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="14" t="s">
+      <c r="E54" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>40633</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="14">
         <v>40633</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="12">
         <v>11</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="14">
         <v>40636</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="13">
         <v>12</v>
       </c>
-      <c r="M54" s="17" t="s">
+      <c r="M54" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N54" s="14">
         <v>40638</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="12">
         <v>8</v>
       </c>
-      <c r="P54" s="17" t="s">
+      <c r="P54" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q54" s="14">
         <v>40643</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54" s="12">
         <v>9</v>
       </c>
-      <c r="S54" s="17" t="s">
+      <c r="S54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T54" s="16">
+      <c r="T54" s="14">
         <v>40645</v>
       </c>
-      <c r="U54" s="14">
+      <c r="U54" s="12">
         <v>3</v>
       </c>
-      <c r="V54" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W54" s="14" t="s">
+      <c r="V54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W54" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="X54" s="16">
+      <c r="X54" s="14">
         <v>40647</v>
       </c>
-      <c r="Y54" s="14">
+      <c r="Y54" s="12">
         <v>3</v>
       </c>
-      <c r="Z54" s="14">
-        <f>Y54+U54+R54+O54+L54+I54</f>
+      <c r="Z54" s="12">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="AA54" s="14">
-        <f>Z54/30*1</f>
+      <c r="AA54" s="12">
+        <f t="shared" si="5"/>
         <v>1.5333333333333334</v>
       </c>
-      <c r="AB54" s="14" t="s">
+      <c r="AB54" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="27">
         <v>609</v>
       </c>
-      <c r="C55">
-        <f>B55+100</f>
+      <c r="C55" s="27">
+        <f t="shared" si="3"/>
         <v>709</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="27">
         <v>387</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>50</v>
@@ -6168,7 +6282,7 @@
       <c r="J55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>40598</v>
       </c>
       <c r="L55" s="2">
@@ -6177,7 +6291,7 @@
       <c r="M55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>40603</v>
       </c>
       <c r="O55" s="1">
@@ -6214,11 +6328,11 @@
         <v>3</v>
       </c>
       <c r="Z55" s="1">
-        <f>Y55+U55+R55+O55+L55+I55</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="AA55" s="1">
-        <f>Z55/30*1</f>
+        <f t="shared" si="5"/>
         <v>2.9333333333333331</v>
       </c>
       <c r="AB55" s="1" t="s">
@@ -6226,26 +6340,29 @@
       </c>
     </row>
     <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="27">
         <v>610</v>
       </c>
-      <c r="C56">
-        <f>B56+100</f>
+      <c r="C56" s="27">
+        <f t="shared" si="3"/>
         <v>710</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="27">
         <v>388</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>40611</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>40613</v>
       </c>
       <c r="I56" s="5">
@@ -6254,16 +6371,16 @@
       <c r="J56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <v>40615</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="7">
         <v>7</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="6">
         <v>40617</v>
       </c>
       <c r="O56" s="5">
@@ -6272,7 +6389,7 @@
       <c r="P56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="6">
         <v>40620</v>
       </c>
       <c r="R56" s="5">
@@ -6281,39 +6398,34 @@
       <c r="S56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T56" s="7">
+      <c r="T56" s="6">
         <v>40623</v>
       </c>
       <c r="U56" s="5">
         <v>6</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="8" t="s">
         <v>56</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="X56" s="7">
+      <c r="X56" s="6">
         <v>40627</v>
       </c>
       <c r="Y56" s="5">
         <v>3</v>
       </c>
       <c r="Z56" s="5">
-        <f>Y56+U56+R56+O56+L56+I56</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="AA56" s="5">
-        <f>Z56/30*1</f>
+        <f t="shared" si="5"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="AB56" s="5" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/longitudinal ratings/exp set up/progress track guide.xlsx
+++ b/longitudinal ratings/exp set up/progress track guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="tracking" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tracking!$A$1:$AB$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tracking!$B$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="75">
   <si>
     <t>Date Long 1 Sent</t>
   </si>
@@ -80,69 +80,6 @@
     <t>email erin?</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Kelly Capper</t>
-  </si>
-  <si>
-    <t>capper000@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Molly Thomas</t>
-  </si>
-  <si>
-    <t>Cody Allison</t>
-  </si>
-  <si>
-    <t>Julie Thompson</t>
-  </si>
-  <si>
-    <t>molly292@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>allison626@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>julie1982@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>alicia008@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Alicia Prugger</t>
-  </si>
-  <si>
-    <t>Jacquelin Graham</t>
-  </si>
-  <si>
-    <t>jcg2010@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Jamie Gish</t>
-  </si>
-  <si>
-    <t>gish821@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Fara Julien</t>
-  </si>
-  <si>
-    <t>fara5123@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Travis Cott</t>
-  </si>
-  <si>
-    <t>travis.cott@yahoo.com</t>
-  </si>
-  <si>
-    <t>Alexandra Antle</t>
-  </si>
-  <si>
-    <t>aca0430@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 2/11/11</t>
   </si>
   <si>
@@ -164,36 +101,6 @@
     <t>sent 2/18/11</t>
   </si>
   <si>
-    <t>Katie Thompkins</t>
-  </si>
-  <si>
-    <t>thompkins517@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Mary Moore</t>
-  </si>
-  <si>
-    <t>moore229@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Yuan Zhou</t>
-  </si>
-  <si>
-    <t>zhou880920@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Kristin Corlies</t>
-  </si>
-  <si>
-    <t>corlies149@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Cortney McCann</t>
-  </si>
-  <si>
-    <t>cortney29@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 2/24/11</t>
   </si>
   <si>
@@ -212,69 +119,9 @@
     <t>sent 3/8/11</t>
   </si>
   <si>
-    <t>pham123@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Anh Pham</t>
-  </si>
-  <si>
-    <t>Ashley Courtney </t>
-  </si>
-  <si>
-    <t>aac751@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Sydney Leutzinger </t>
-  </si>
-  <si>
-    <t>sydney23@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Zach Durham</t>
-  </si>
-  <si>
-    <t>durham123456@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>samantha Lurvey </t>
-  </si>
-  <si>
-    <t>sfl92@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Elizabeth Wells</t>
-  </si>
-  <si>
-    <t>wells35@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Eric Straub</t>
-  </si>
-  <si>
-    <t>es9602@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Anh Nguyen</t>
-  </si>
-  <si>
-    <t>anh810@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 3/13/11</t>
   </si>
   <si>
-    <t>John Luu</t>
-  </si>
-  <si>
-    <t>luu688@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>miller526@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Cody Miller</t>
-  </si>
-  <si>
     <t>sent 3/15/11</t>
   </si>
   <si>
@@ -290,99 +137,9 @@
     <t>sent 3/20/11</t>
   </si>
   <si>
-    <t>Daniel Cheuk</t>
-  </si>
-  <si>
-    <t>daniel17@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>monica040@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>monica Smith </t>
-  </si>
-  <si>
-    <t>Kelsey Dennis </t>
-  </si>
-  <si>
-    <t>kelsey092@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 3/21/11</t>
   </si>
   <si>
-    <t>Matt Keck</t>
-  </si>
-  <si>
-    <t>mlk655@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Janai Miller</t>
-  </si>
-  <si>
-    <t>janai388@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Derek Kelly</t>
-  </si>
-  <si>
-    <t>ddk1014@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Alexandria Brown </t>
-  </si>
-  <si>
-    <t>amb99@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>suhina Deol</t>
-  </si>
-  <si>
-    <t>sd003@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Meghan Curtis</t>
-  </si>
-  <si>
-    <t>curtis955@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Jennifer Allworth</t>
-  </si>
-  <si>
-    <t>allworth1012@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Camille Hendricks </t>
-  </si>
-  <si>
-    <t>ch1991@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Shevonne Brown</t>
-  </si>
-  <si>
-    <t>shevonne8018@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Kaelin Eslinger</t>
-  </si>
-  <si>
-    <t>eslinger88@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Suzie Cornish</t>
-  </si>
-  <si>
-    <t>Laura Stellick</t>
-  </si>
-  <si>
-    <t>cornish151@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>lms2014@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 3/23/11</t>
   </si>
   <si>
@@ -410,36 +167,6 @@
     <t>sent 2/27/11; 3/27/11</t>
   </si>
   <si>
-    <t>Rebecca Wilshusen</t>
-  </si>
-  <si>
-    <t>rebecca487@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Bridget Ruark</t>
-  </si>
-  <si>
-    <t>br7721@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>spurling18@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Phillip Spurling</t>
-  </si>
-  <si>
-    <t>Adam Musante </t>
-  </si>
-  <si>
-    <t>atm123@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Cole Alexander</t>
-  </si>
-  <si>
-    <t>cole011@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 3/28/11</t>
   </si>
   <si>
@@ -455,66 +182,12 @@
     <t>sent 3/31/11</t>
   </si>
   <si>
-    <t>Max Kelsey</t>
-  </si>
-  <si>
-    <t>max12345@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>hartmann113@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Victoria Hartmann</t>
-  </si>
-  <si>
-    <t>Annemarie Economon</t>
-  </si>
-  <si>
-    <t>economon792@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>megan0918@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Megan Morris</t>
-  </si>
-  <si>
     <t>sent 4/1/11</t>
   </si>
   <si>
-    <t>Nataleigh Ross</t>
-  </si>
-  <si>
-    <t>rn0373763@otc.edu</t>
-  </si>
-  <si>
-    <t>Kelly Caldwell</t>
-  </si>
-  <si>
-    <t>caldwell9109@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>Kayse Melone</t>
-  </si>
-  <si>
-    <t>kayse888@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 4/2/11</t>
   </si>
   <si>
-    <t>Alexandria Holder</t>
-  </si>
-  <si>
-    <t>Logan Reeder</t>
-  </si>
-  <si>
-    <t>alexandria209@Live.MissouriState.edu</t>
-  </si>
-  <si>
-    <t>lr12@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 4/4/11</t>
   </si>
   <si>
@@ -527,12 +200,6 @@
     <t>sent 4/9/11</t>
   </si>
   <si>
-    <t>Oliver Bowers</t>
-  </si>
-  <si>
-    <t>oliver229@Live.MissouriState.edu</t>
-  </si>
-  <si>
     <t>sent 4/10/11</t>
   </si>
   <si>
@@ -570,9 +237,6 @@
   </si>
   <si>
     <t>sent 4/22/11</t>
-  </si>
-  <si>
-    <t>Person</t>
   </si>
   <si>
     <t>partno</t>
@@ -659,18 +323,12 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1065,18 +723,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1091,12 +744,7 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="381">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1783,60 +1431,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1497,7 @@
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1905,98 +1550,92 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="27">
+      <c r="A2" s="14"/>
+      <c r="B2" s="4">
         <v>556</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="4">
         <f t="shared" ref="C2:C33" si="0">B2+100</f>
         <v>656</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="4">
         <v>334</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="13">
+        <v>40630</v>
+      </c>
+      <c r="H2" s="13">
+        <v>40629</v>
+      </c>
+      <c r="I2" s="10">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="13">
+        <v>40631</v>
+      </c>
+      <c r="L2" s="17">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="13">
+        <v>40633</v>
+      </c>
+      <c r="O2" s="10">
+        <v>5</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>40636</v>
+      </c>
+      <c r="R2" s="10">
+        <v>7</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="13">
+        <v>40638</v>
+      </c>
+      <c r="U2" s="10">
+        <v>4</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="14">
-        <v>40630</v>
-      </c>
-      <c r="H2" s="14">
-        <v>40629</v>
-      </c>
-      <c r="I2" s="12">
-        <v>6</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="14">
-        <v>40631</v>
-      </c>
-      <c r="L2" s="13">
-        <v>6</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="14">
-        <v>40633</v>
-      </c>
-      <c r="O2" s="12">
-        <v>5</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>40636</v>
-      </c>
-      <c r="R2" s="12">
-        <v>7</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="T2" s="14">
-        <v>40638</v>
-      </c>
-      <c r="U2" s="12">
-        <v>4</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>40643</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="10">
         <v>3</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="10">
         <f t="shared" ref="Z2:Z33" si="1">Y2+U2+R2+O2+L2+I2</f>
         <v>31</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="10">
         <f t="shared" ref="AA2:AA33" si="2">Z2/30*1</f>
         <v>1.0333333333333334</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>85</v>
+      <c r="AB2" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>36</v>
-      </c>
+    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3">
         <v>557</v>
       </c>
@@ -2008,51 +1647,47 @@
         <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="14">
+        <v>74</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9">
         <v>40584</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>40584</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="7">
         <v>8</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12">
+      <c r="J3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="7">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>100</v>
-      </c>
+    <row r="4" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
       <c r="B4">
         <v>558</v>
       </c>
@@ -2064,205 +1699,198 @@
         <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="14">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9">
         <v>40627</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>40624</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>7</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12">
+      <c r="J4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="7">
         <f t="shared" si="2"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4">
         <v>559</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>659</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="4">
         <v>337</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13">
+        <v>40636</v>
+      </c>
+      <c r="H5" s="13">
+        <v>40636</v>
+      </c>
+      <c r="I5" s="10">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="13">
+        <v>40638</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="14">
-        <v>40636</v>
-      </c>
-      <c r="H5" s="14">
-        <v>40636</v>
-      </c>
-      <c r="I5" s="12">
-        <v>9</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="14">
-        <v>40638</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="N5" s="13">
+        <v>40643</v>
+      </c>
+      <c r="O5" s="10">
+        <v>4</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>40645</v>
+      </c>
+      <c r="R5" s="10">
         <v>5</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N5" s="14">
-        <v>40643</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="S5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="13">
+        <v>40647</v>
+      </c>
+      <c r="U5" s="10">
+        <v>5</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="13">
+        <v>40651</v>
+      </c>
+      <c r="Y5" s="10">
         <v>4</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>40645</v>
-      </c>
-      <c r="R5" s="12">
-        <v>5</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T5" s="14">
-        <v>40647</v>
-      </c>
-      <c r="U5" s="12">
-        <v>5</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="X5" s="14">
-        <v>40651</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="10">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="10">
         <f t="shared" si="2"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>85</v>
+      <c r="AB5" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4">
         <v>560</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>338</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
         <v>40584</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>40588</v>
       </c>
       <c r="I6" s="1">
         <v>15</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
         <v>40590</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>9</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2">
         <v>40594</v>
       </c>
       <c r="O6" s="1">
         <v>17</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="2">
         <v>40614</v>
       </c>
       <c r="R6" s="1">
         <v>9</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2">
         <v>40619</v>
       </c>
       <c r="U6" s="1">
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="4">
+        <v>25</v>
+      </c>
+      <c r="W6" s="2">
         <v>40622</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="2">
         <v>40624</v>
       </c>
       <c r="Y6" s="1">
@@ -2277,102 +1905,96 @@
         <v>1.9666666666666666</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4">
         <v>561</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>661</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="4">
         <v>339</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="13">
         <v>40611</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>40612</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="13">
         <v>40615</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="17">
         <v>14</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="M7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="13">
         <v>40621</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>9</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="14">
+      <c r="P7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="13">
         <v>40630</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="10">
         <v>7</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="14">
+      <c r="S7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="13">
         <v>40650</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="10">
         <v>6</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="X7" s="24">
+      <c r="V7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" s="19">
         <v>40656</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="6">
         <v>2</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="10">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB7" s="12" t="s">
-        <v>85</v>
+      <c r="AB7" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>62</v>
-      </c>
+    <row r="8" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>555</v>
       </c>
@@ -2384,158 +2006,150 @@
         <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="14">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9">
         <v>40611</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>40611</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="7">
         <v>17</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="13">
         <v>40621</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>14</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="18">
+      <c r="M8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="13">
         <v>40623</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="7">
         <v>11</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="14">
+      <c r="P8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="9">
         <v>40626</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="7">
         <v>13</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12">
+      <c r="S8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="7">
         <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4">
         <v>563</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="4">
         <v>341</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13">
+        <v>40633</v>
+      </c>
+      <c r="H9" s="13">
+        <v>40633</v>
+      </c>
+      <c r="I9" s="10">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="13">
+        <v>40636</v>
+      </c>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="13">
+        <v>40638</v>
+      </c>
+      <c r="O9" s="10">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="14">
-        <v>40633</v>
-      </c>
-      <c r="H9" s="14">
-        <v>40633</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="Q9" s="13">
+        <v>40643</v>
+      </c>
+      <c r="R9" s="10">
         <v>6</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="14">
-        <v>40636</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="S9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="13">
+        <v>40645</v>
+      </c>
+      <c r="U9" s="10">
         <v>5</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" s="14">
-        <v>40638</v>
-      </c>
-      <c r="O9" s="12">
-        <v>10</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>40643</v>
-      </c>
-      <c r="R9" s="12">
-        <v>6</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" s="14">
-        <v>40645</v>
-      </c>
-      <c r="U9" s="12">
-        <v>5</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="X9" s="14">
+      <c r="V9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="13">
         <v>40647</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="10">
         <v>3</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="10">
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>85</v>
+      <c r="AB9" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
       <c r="B10">
         <v>564</v>
       </c>
@@ -2547,214 +2161,204 @@
         <v>342</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="14">
+        <v>74</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9">
         <v>40611</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>40614</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>6</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="13">
         <v>40630</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>5</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12">
+      <c r="M10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="7">
         <f t="shared" si="2"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4">
         <v>565</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="4">
         <v>343</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="13">
+        <v>40630</v>
+      </c>
+      <c r="H11" s="13">
+        <v>40629</v>
+      </c>
+      <c r="I11" s="10">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="13">
+        <v>40632</v>
+      </c>
+      <c r="L11" s="17">
+        <v>9</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="13">
+        <v>40634</v>
+      </c>
+      <c r="O11" s="10">
+        <v>6</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>40637</v>
+      </c>
+      <c r="R11" s="10">
+        <v>6</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="13">
+        <v>40639</v>
+      </c>
+      <c r="U11" s="10">
+        <v>6</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="14">
-        <v>40630</v>
-      </c>
-      <c r="H11" s="14">
-        <v>40629</v>
-      </c>
-      <c r="I11" s="12">
-        <v>7</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="14">
-        <v>40632</v>
-      </c>
-      <c r="L11" s="13">
-        <v>9</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="14">
-        <v>40634</v>
-      </c>
-      <c r="O11" s="12">
-        <v>6</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>40637</v>
-      </c>
-      <c r="R11" s="12">
-        <v>6</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T11" s="14">
-        <v>40639</v>
-      </c>
-      <c r="U11" s="12">
-        <v>6</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <v>40643</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="10">
         <v>3</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="10">
         <f t="shared" si="2"/>
         <v>1.2333333333333334</v>
       </c>
-      <c r="AB11" s="12" t="s">
-        <v>85</v>
+      <c r="AB11" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="A12" s="20"/>
+      <c r="B12" s="4">
         <v>566</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="4">
         <v>344</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2">
         <v>40631</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>40624</v>
       </c>
       <c r="I12" s="1">
         <v>9</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2">
         <v>40629</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="2">
         <v>40632</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="P12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="2">
         <v>40635</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="2">
         <v>40637</v>
       </c>
       <c r="U12" s="1">
         <v>5</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="X12" s="4">
+        <v>25</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="2">
         <v>40640</v>
       </c>
       <c r="Y12" s="1">
@@ -2769,81 +2373,77 @@
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4">
         <v>567</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>667</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="4">
         <v>345</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2">
         <v>40584</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>40584</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
         <v>40586</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>6</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2">
         <v>40589</v>
       </c>
       <c r="O13" s="1">
         <v>5</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="P13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="2">
         <v>40591</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="4">
+      <c r="S13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="2">
         <v>40595</v>
       </c>
       <c r="U13" s="1">
         <v>6</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W13" s="4">
+        <v>25</v>
+      </c>
+      <c r="W13" s="2">
         <v>40598</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="2">
         <v>40598</v>
       </c>
       <c r="Y13" s="1">
@@ -2858,191 +2458,181 @@
         <v>1</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4">
         <v>568</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>668</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="4">
         <v>346</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2">
         <v>40614</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="2">
         <v>40615</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2">
         <v>40617</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>14</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2">
         <v>40620</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="1">
         <v>14</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="P14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="2">
         <v>40623</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="1">
         <v>13</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="S14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="2">
         <v>40626</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="1">
         <v>9</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="X14" s="6">
+      <c r="V14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="2">
         <v>40630</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="1">
         <v>8</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="1">
         <f t="shared" si="2"/>
         <v>2.0333333333333332</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>84</v>
+      <c r="AB14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="27">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4">
         <v>569</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>669</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="4">
         <v>347</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="13">
         <v>40630</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>40630</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>11</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="14">
+      <c r="J15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="13">
         <v>40637</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="17">
         <v>17</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N15" s="14">
+      <c r="M15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="13">
         <v>40645</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="10">
         <v>5</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" s="14">
+      <c r="P15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="13">
         <v>40650</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="10">
         <v>5</v>
       </c>
-      <c r="S15" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="T15" s="14">
+      <c r="S15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="13">
         <v>40653</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="10">
         <v>3</v>
       </c>
-      <c r="V15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="X15" s="14">
+      <c r="V15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="X15" s="13">
         <v>40658</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="10">
         <v>4</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="10">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB15" s="12" t="s">
-        <v>85</v>
+      <c r="AB15" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
-      </c>
+    <row r="16" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16">
         <v>570</v>
       </c>
@@ -3054,297 +2644,283 @@
         <v>348</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="14">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9">
         <v>40596</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="9">
         <v>40596</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="7">
         <v>14</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12">
+      <c r="J16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="7">
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="27">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4">
         <v>571</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="4">
         <v>349</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="13">
+        <v>40623</v>
+      </c>
+      <c r="H17" s="13">
+        <v>40623</v>
+      </c>
+      <c r="I17" s="10">
+        <v>14</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="13">
+        <v>40627</v>
+      </c>
+      <c r="L17" s="17">
+        <v>10</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="13">
+        <v>40632</v>
+      </c>
+      <c r="O17" s="10">
+        <v>11</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>40637</v>
+      </c>
+      <c r="R17" s="10">
+        <v>7</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="13">
+        <v>40639</v>
+      </c>
+      <c r="U17" s="10">
+        <v>9</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="14">
-        <v>40623</v>
-      </c>
-      <c r="H17" s="14">
-        <v>40623</v>
-      </c>
-      <c r="I17" s="12">
-        <v>14</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="14">
-        <v>40627</v>
-      </c>
-      <c r="L17" s="13">
-        <v>10</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="14">
-        <v>40632</v>
-      </c>
-      <c r="O17" s="12">
-        <v>11</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>40637</v>
-      </c>
-      <c r="R17" s="12">
-        <v>7</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="T17" s="14">
-        <v>40639</v>
-      </c>
-      <c r="U17" s="12">
-        <v>9</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X17" s="14">
+      <c r="X17" s="13">
         <v>40643</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="10">
         <v>3</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="Z17" s="10">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="10">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="AB17" s="12" t="s">
-        <v>85</v>
+      <c r="AB17" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="27">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4">
         <v>572</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="4">
         <v>350</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13">
+        <v>40626</v>
+      </c>
+      <c r="H18" s="13">
+        <v>40624</v>
+      </c>
+      <c r="I18" s="10">
+        <v>9</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="13">
+        <v>40638</v>
+      </c>
+      <c r="L18" s="17">
+        <v>5</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="14">
-        <v>40626</v>
-      </c>
-      <c r="H18" s="14">
-        <v>40624</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="N18" s="13">
+        <v>40643</v>
+      </c>
+      <c r="O18" s="10">
+        <v>34</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>40645</v>
+      </c>
+      <c r="R18" s="10">
         <v>9</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="14">
-        <v>40638</v>
-      </c>
-      <c r="L18" s="13">
-        <v>5</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N18" s="14">
-        <v>40643</v>
-      </c>
-      <c r="O18" s="12">
-        <v>34</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>40645</v>
-      </c>
-      <c r="R18" s="12">
-        <v>9</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T18" s="14">
+      <c r="S18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="13">
         <v>40650</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="10">
         <v>10</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="X18" s="14">
+      <c r="V18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" s="13">
         <v>40652</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="10">
         <v>7</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="10">
         <f t="shared" si="2"/>
         <v>2.4666666666666668</v>
       </c>
-      <c r="AB18" s="12" t="s">
-        <v>84</v>
+      <c r="AB18" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="27">
+      <c r="A19" s="20"/>
+      <c r="B19" s="4">
         <v>573</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>673</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="4">
         <v>351</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2">
         <v>40611</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>40611</v>
       </c>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
         <v>40616</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>14</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="2">
         <v>40619</v>
       </c>
       <c r="O19" s="1">
         <v>11</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="2">
         <v>40624</v>
       </c>
       <c r="R19" s="1">
         <v>10</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="S19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="2">
         <v>40627</v>
       </c>
       <c r="U19" s="1">
         <v>9</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="X19" s="4">
+        <v>25</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" s="2">
         <v>40630</v>
       </c>
       <c r="Y19" s="1">
@@ -3359,170 +2935,162 @@
         <v>2.0333333333333332</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="27">
+      <c r="A20" s="20"/>
+      <c r="B20" s="4">
         <v>574</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="4">
         <v>352</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2">
         <v>40611</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="2">
         <v>40611</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
         <v>40615</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>8</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2">
         <v>40618</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="6">
+      <c r="P20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="2">
         <v>40620</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="S20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="2">
         <v>40624</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="1">
         <v>5</v>
       </c>
-      <c r="V20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X20" s="6">
+      <c r="V20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="2">
         <v>40627</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="1">
         <v>3</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="1">
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>85</v>
+      <c r="AB20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="27">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4">
         <v>575</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="4">
         <v>353</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2">
         <v>40584</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>40584</v>
       </c>
       <c r="I21" s="1">
         <v>9</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2">
         <v>40588</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>7</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="2">
         <v>40592</v>
       </c>
       <c r="O21" s="1">
         <v>8</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="2">
         <v>40596</v>
       </c>
       <c r="R21" s="1">
         <v>7</v>
       </c>
-      <c r="S21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="S21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="2">
         <v>40598</v>
       </c>
       <c r="U21" s="1">
         <v>5</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="4">
+        <v>25</v>
+      </c>
+      <c r="W21" s="2">
         <v>40603</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="2">
         <v>40622</v>
       </c>
       <c r="Y21" s="1">
@@ -3537,81 +3105,77 @@
         <v>1.3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="27">
+      <c r="A22" s="20"/>
+      <c r="B22" s="4">
         <v>576</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>676</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="4">
         <v>354</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2">
         <v>40584</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>40584</v>
       </c>
       <c r="I22" s="1">
         <v>8</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
         <v>40617</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>6</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="M22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="2">
         <v>40624</v>
       </c>
       <c r="O22" s="1">
         <v>6</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="2">
         <v>40627</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="S22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="2">
         <v>40630</v>
       </c>
       <c r="U22" s="1">
         <v>9</v>
       </c>
-      <c r="V22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" s="4">
+      <c r="V22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="2">
         <v>40633</v>
       </c>
       <c r="Y22" s="1">
@@ -3626,81 +3190,77 @@
         <v>1.2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="27">
+      <c r="A23" s="20"/>
+      <c r="B23" s="4">
         <v>577</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="4">
         <v>355</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2">
         <v>40584</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>40584</v>
       </c>
       <c r="I23" s="1">
         <v>8</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2">
         <v>40588</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>10</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="2">
         <v>40596</v>
       </c>
       <c r="O23" s="1">
         <v>5</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="6">
+      <c r="P23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="2">
         <v>40624</v>
       </c>
       <c r="R23" s="1">
         <v>6</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T23" s="4">
+      <c r="S23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="2">
         <v>40630</v>
       </c>
       <c r="U23" s="1">
         <v>6</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X23" s="4">
+        <v>25</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="2">
         <v>40632</v>
       </c>
       <c r="Y23" s="1">
@@ -3715,13 +3275,11 @@
         <v>1.2666666666666666</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>96</v>
-      </c>
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
       <c r="B24">
         <v>578</v>
       </c>
@@ -3733,51 +3291,47 @@
         <v>356</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="14">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9">
         <v>40625</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="9">
         <v>40624</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="7">
         <v>7</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12">
+      <c r="J24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="7">
         <f t="shared" si="2"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>106</v>
-      </c>
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
       <c r="B25">
         <v>579</v>
       </c>
@@ -3789,137 +3343,131 @@
         <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="14">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9">
         <v>40630</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="9">
         <v>40624</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="7">
         <v>6</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="14">
+      <c r="J25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="9">
         <v>40629</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="8">
         <v>7</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" s="14">
+      <c r="M25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9">
         <v>40644</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="7">
         <v>7</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="14">
+      <c r="P25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="9">
         <v>40646</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="7">
         <v>5</v>
       </c>
-      <c r="S25" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12">
+      <c r="S25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="27">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4">
         <v>580</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="4">
         <v>358</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2">
         <v>40614</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>40615</v>
       </c>
       <c r="I26" s="1">
         <v>18</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="J26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="2">
         <v>40617</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <v>6</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="M26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2">
         <v>40619</v>
       </c>
       <c r="O26" s="1">
         <v>5</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q26" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="2">
         <v>40625</v>
       </c>
       <c r="R26" s="1">
         <v>5</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="S26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="2">
         <v>40628</v>
       </c>
       <c r="U26" s="1">
         <v>10</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="X26" s="4">
+        <v>25</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" s="2">
         <v>40630</v>
       </c>
       <c r="Y26" s="1">
@@ -3934,81 +3482,77 @@
         <v>1.6</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4">
         <v>581</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>681</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="4">
         <v>359</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2">
         <v>40584</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>40584</v>
       </c>
       <c r="I27" s="1">
         <v>8</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2">
         <v>40587</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="3">
         <v>6</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="2">
         <v>40589</v>
       </c>
       <c r="O27" s="1">
         <v>4</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="P27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="2">
         <v>40591</v>
       </c>
       <c r="R27" s="1">
         <v>3</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="4">
+      <c r="S27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="2">
         <v>40595</v>
       </c>
       <c r="U27" s="1">
         <v>5</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="4">
+        <v>25</v>
+      </c>
+      <c r="W27" s="2">
         <v>40601</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27" s="2">
         <v>40602</v>
       </c>
       <c r="Y27" s="1">
@@ -4023,369 +3567,351 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="27">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4">
         <v>582</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>682</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="4">
         <v>360</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="14">
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="13">
         <v>40633</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>40624</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="10">
         <v>10</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" s="14">
+      <c r="J28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="13">
         <v>40627</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="17">
         <v>6</v>
       </c>
-      <c r="M28" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="14">
+      <c r="M28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="13">
         <v>40633</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="10">
         <v>6</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" s="14">
+      <c r="P28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="13">
         <v>40637</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="10">
         <v>5</v>
       </c>
-      <c r="S28" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T28" s="14">
+      <c r="S28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="13">
         <v>40650</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="10">
         <v>5</v>
       </c>
-      <c r="V28" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="X28" s="14">
+      <c r="V28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="13">
         <v>40652</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y28" s="10">
         <v>2</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="Z28" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28" s="10">
         <f t="shared" si="2"/>
         <v>1.1333333333333333</v>
       </c>
-      <c r="AB28" s="12" t="s">
-        <v>85</v>
+      <c r="AB28" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4">
         <v>583</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>683</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="4">
         <v>361</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="14">
+      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="13">
         <v>40596</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>40596</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <v>10</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="18">
+      <c r="J29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="13">
         <v>40633</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="17">
         <v>8</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="N29" s="18">
+      <c r="M29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="13">
         <v>40637</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="10">
         <v>7</v>
       </c>
-      <c r="P29" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q29" s="14">
+      <c r="P29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="13">
         <v>40645</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="10">
         <v>6</v>
       </c>
-      <c r="S29" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T29" s="14">
+      <c r="S29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="13">
         <v>40648</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="10">
         <v>6</v>
       </c>
-      <c r="V29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="X29" s="14">
+      <c r="V29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X29" s="13">
         <v>40650</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="10">
         <v>3</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z29" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="10">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AB29" s="12" t="s">
-        <v>85</v>
+      <c r="AB29" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="27">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4">
         <v>584</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="4">
         <v>362</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="13">
+        <v>40635</v>
+      </c>
+      <c r="H30" s="13">
+        <v>40634</v>
+      </c>
+      <c r="I30" s="10">
+        <v>5</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="13">
+        <v>40637</v>
+      </c>
+      <c r="L30" s="17">
+        <v>4</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="13">
+        <v>40639</v>
+      </c>
+      <c r="O30" s="10">
+        <v>3</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="18">
-        <v>40635</v>
-      </c>
-      <c r="H30" s="18">
-        <v>40634</v>
-      </c>
-      <c r="I30" s="15">
-        <v>5</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K30" s="18">
-        <v>40637</v>
-      </c>
-      <c r="L30" s="22">
-        <v>4</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="18">
-        <v>40639</v>
-      </c>
-      <c r="O30" s="15">
+      <c r="Q30" s="13">
+        <v>40643</v>
+      </c>
+      <c r="R30" s="10">
         <v>3</v>
       </c>
-      <c r="P30" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>40643</v>
-      </c>
-      <c r="R30" s="15">
+      <c r="S30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="13">
+        <v>40645</v>
+      </c>
+      <c r="U30" s="10">
         <v>3</v>
       </c>
-      <c r="S30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="T30" s="18">
-        <v>40645</v>
-      </c>
-      <c r="U30" s="15">
+      <c r="V30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="13">
+        <v>40647</v>
+      </c>
+      <c r="Y30" s="10">
         <v>3</v>
       </c>
-      <c r="V30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="X30" s="18">
-        <v>40647</v>
-      </c>
-      <c r="Y30" s="15">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="12">
+      <c r="Z30" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="10">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="AB30" s="15" t="s">
-        <v>57</v>
+      <c r="AB30" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="27">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4">
         <v>585</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>685</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="4">
         <v>363</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13">
+        <v>40635</v>
+      </c>
+      <c r="H31" s="13">
+        <v>40634</v>
+      </c>
+      <c r="I31" s="10">
+        <v>11</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="13">
+        <v>40637</v>
+      </c>
+      <c r="L31" s="17">
+        <v>19</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="13">
+        <v>40640</v>
+      </c>
+      <c r="O31" s="10">
+        <v>11</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="18">
-        <v>40635</v>
-      </c>
-      <c r="H31" s="18">
-        <v>40634</v>
-      </c>
-      <c r="I31" s="15">
-        <v>11</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="18">
-        <v>40637</v>
-      </c>
-      <c r="L31" s="22">
-        <v>19</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N31" s="18">
-        <v>40640</v>
-      </c>
-      <c r="O31" s="15">
-        <v>11</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="13">
         <v>40643</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="10">
         <v>9</v>
       </c>
-      <c r="S31" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="T31" s="18">
+      <c r="S31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="13">
         <v>40645</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="10">
         <v>15</v>
       </c>
-      <c r="V31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="X31" s="18">
+      <c r="V31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="13">
         <v>40647</v>
       </c>
-      <c r="Y31" s="15">
+      <c r="Y31" s="10">
         <v>4</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="Z31" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA31" s="10">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB31" s="15" t="s">
-        <v>174</v>
+      <c r="AB31" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>18</v>
-      </c>
+    <row r="32" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32">
         <v>586</v>
       </c>
@@ -4397,307 +3923,291 @@
         <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="14">
+        <v>74</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="9">
         <v>40583</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="9">
         <v>40583</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="7">
         <v>7</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="14">
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9">
         <v>40588</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="8">
         <v>6</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="18">
+      <c r="M32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="13">
         <v>40598</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="7">
         <v>4</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q32" s="18">
+      <c r="P32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="13">
         <v>40659</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="7">
         <v>3</v>
       </c>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12">
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="7">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="27">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4">
         <v>587</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>687</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="4">
         <v>365</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="13">
         <v>40623</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>40623</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <v>10</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K33" s="14">
+      <c r="J33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="13">
         <v>40626</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="17">
         <v>6</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" s="14">
+      <c r="M33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="13">
         <v>40630</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="10">
         <v>5</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q33" s="14">
+      <c r="P33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="13">
         <v>40636</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="10">
         <v>4</v>
       </c>
-      <c r="S33" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="T33" s="14">
+      <c r="S33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33" s="13">
         <v>40643</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="10">
         <v>4</v>
       </c>
-      <c r="V33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="X33" s="14">
+      <c r="V33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X33" s="13">
         <v>40646</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="10">
         <v>2</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z33" s="10">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="10">
         <f t="shared" si="2"/>
         <v>1.0333333333333334</v>
       </c>
-      <c r="AB33" s="12" t="s">
-        <v>85</v>
+      <c r="AB33" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>51</v>
-      </c>
+    <row r="34" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
       <c r="B34">
         <v>588</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="3">B34+100</f>
+        <f t="shared" ref="C34:C56" si="3">B34+100</f>
         <v>688</v>
       </c>
       <c r="D34">
         <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="14">
+        <v>74</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="9">
         <v>40596</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="13">
         <v>40597</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="7">
         <v>10</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="18">
+      <c r="J34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="13">
         <v>40602</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>12</v>
       </c>
-      <c r="M34" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12">
-        <f t="shared" ref="Z34:Z65" si="4">Y34+U34+R34+O34+L34+I34</f>
+      <c r="M34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7">
+        <f t="shared" ref="Z34:Z56" si="4">Y34+U34+R34+O34+L34+I34</f>
         <v>22</v>
       </c>
-      <c r="AA34" s="12">
-        <f t="shared" ref="AA34:AA65" si="5">Z34/30*1</f>
+      <c r="AA34" s="7">
+        <f t="shared" ref="AA34:AA56" si="5">Z34/30*1</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="27">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4">
         <v>589</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>689</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="4">
         <v>367</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="13">
+        <v>40604</v>
+      </c>
+      <c r="H35" s="13">
+        <v>40624</v>
+      </c>
+      <c r="I35" s="10">
+        <v>11</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="13">
+        <v>40629</v>
+      </c>
+      <c r="L35" s="17">
+        <v>15</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="13">
+        <v>40633</v>
+      </c>
+      <c r="O35" s="10">
+        <v>20</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>40638</v>
+      </c>
+      <c r="R35" s="10">
+        <v>16</v>
+      </c>
+      <c r="S35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="14">
-        <v>40604</v>
-      </c>
-      <c r="H35" s="14">
-        <v>40624</v>
-      </c>
-      <c r="I35" s="12">
-        <v>11</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K35" s="14">
-        <v>40629</v>
-      </c>
-      <c r="L35" s="13">
+      <c r="T35" s="13">
+        <v>40645</v>
+      </c>
+      <c r="U35" s="10">
         <v>15</v>
       </c>
-      <c r="M35" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="N35" s="14">
-        <v>40633</v>
-      </c>
-      <c r="O35" s="12">
-        <v>20</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>40638</v>
-      </c>
-      <c r="R35" s="12">
-        <v>16</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="T35" s="14">
-        <v>40645</v>
-      </c>
-      <c r="U35" s="12">
-        <v>15</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="X35" s="14">
+      <c r="V35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35" s="13">
         <v>40648</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="10">
         <v>5</v>
       </c>
-      <c r="Z35" s="12">
+      <c r="Z35" s="10">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="AA35" s="12">
+      <c r="AA35" s="10">
         <f t="shared" si="5"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="AB35" s="12" t="s">
-        <v>174</v>
+      <c r="AB35" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>159</v>
-      </c>
+    <row r="36" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
       <c r="B36">
         <v>590</v>
       </c>
@@ -4709,51 +4219,47 @@
         <v>368</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="14">
+        <v>74</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="9">
         <v>40636</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="9">
         <v>40636</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="7">
         <v>19</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12">
+      <c r="J36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA36" s="7">
         <f t="shared" si="5"/>
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>47</v>
-      </c>
+    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37">
         <v>591</v>
       </c>
@@ -4765,57 +4271,53 @@
         <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="18">
+        <v>74</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="13">
         <v>40629</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="7">
         <v>7</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K37" s="18">
+      <c r="J37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="13">
         <v>40632</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="8">
         <v>8</v>
       </c>
-      <c r="M37" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12">
+      <c r="M37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA37" s="7">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>94</v>
-      </c>
+    <row r="38" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
       <c r="B38">
         <v>592</v>
       </c>
@@ -4827,235 +4329,223 @@
         <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="14">
+        <v>74</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="9">
         <v>40624</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="9">
         <v>40624</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="7">
         <v>12</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" s="14">
+      <c r="J38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="9">
         <v>40634</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="8">
         <v>12</v>
       </c>
-      <c r="M38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12">
+      <c r="M38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="AA38" s="12">
+      <c r="AA38" s="7">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="27">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4">
         <v>593</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="4">
         <f t="shared" si="3"/>
         <v>693</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="4">
         <v>371</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="13">
+        <v>40633</v>
+      </c>
+      <c r="H39" s="13">
+        <v>40633</v>
+      </c>
+      <c r="I39" s="10">
+        <v>10</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="13">
+        <v>40636</v>
+      </c>
+      <c r="L39" s="17">
+        <v>10</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="13">
+        <v>40638</v>
+      </c>
+      <c r="O39" s="10">
+        <v>6</v>
+      </c>
+      <c r="P39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="14">
-        <v>40633</v>
-      </c>
-      <c r="H39" s="14">
-        <v>40633</v>
-      </c>
-      <c r="I39" s="12">
-        <v>10</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="14">
-        <v>40636</v>
-      </c>
-      <c r="L39" s="13">
-        <v>10</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N39" s="14">
-        <v>40638</v>
-      </c>
-      <c r="O39" s="12">
-        <v>6</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="13">
         <v>40644</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="10">
         <v>9</v>
       </c>
-      <c r="S39" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="T39" s="14">
+      <c r="S39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="13">
         <v>40646</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="10">
         <v>5</v>
       </c>
-      <c r="V39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W39" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="X39" s="14">
+      <c r="V39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X39" s="13">
         <v>40649</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="10">
         <v>14</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z39" s="10">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA39" s="10">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
-      <c r="AB39" s="12" t="s">
-        <v>85</v>
+      <c r="AB39" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="27">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4">
         <v>594</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="4">
         <f t="shared" si="3"/>
         <v>694</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="4">
         <v>372</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="13">
+        <v>40633</v>
+      </c>
+      <c r="H40" s="13">
+        <v>40634</v>
+      </c>
+      <c r="I40" s="10">
+        <v>15</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="13">
+        <v>40638</v>
+      </c>
+      <c r="L40" s="17">
+        <v>12</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="18">
-        <v>40633</v>
-      </c>
-      <c r="H40" s="18">
-        <v>40634</v>
-      </c>
-      <c r="I40" s="15">
-        <v>15</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K40" s="18">
-        <v>40638</v>
-      </c>
-      <c r="L40" s="22">
+      <c r="N40" s="13">
+        <v>40644</v>
+      </c>
+      <c r="O40" s="10">
         <v>12</v>
       </c>
-      <c r="M40" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N40" s="18">
-        <v>40644</v>
-      </c>
-      <c r="O40" s="15">
-        <v>12</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q40" s="18">
+      <c r="P40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="13">
         <v>40648</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="10">
         <v>9</v>
       </c>
-      <c r="S40" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="T40" s="18">
+      <c r="S40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="13">
         <v>40651</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="10">
         <v>9</v>
       </c>
-      <c r="V40" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W40" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="X40" s="18">
+      <c r="V40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X40" s="13">
         <v>40659</v>
       </c>
-      <c r="Y40" s="15">
+      <c r="Y40" s="10">
         <v>3</v>
       </c>
-      <c r="Z40" s="12">
+      <c r="Z40" s="10">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="10">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB40" s="15" t="s">
-        <v>85</v>
+      <c r="AB40" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>104</v>
-      </c>
+    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
       <c r="B41">
         <v>595</v>
       </c>
@@ -5067,235 +4557,223 @@
         <v>373</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="14">
+        <v>74</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9">
         <v>40629</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="9">
         <v>40624</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="7">
         <v>11</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" s="14">
+      <c r="J41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="9">
         <v>40631</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="8">
         <v>12</v>
       </c>
-      <c r="M41" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12">
+      <c r="M41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA41" s="7">
         <f t="shared" si="5"/>
         <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="27">
+      <c r="A42" s="10"/>
+      <c r="B42" s="4">
         <v>596</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="4">
         <f t="shared" si="3"/>
         <v>696</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="4">
         <v>374</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="14">
+      <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="13">
         <v>40583</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>40583</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="10">
         <v>12</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="14">
+      <c r="J42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="13">
         <v>40587</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="17">
         <v>14</v>
       </c>
-      <c r="M42" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N42" s="18">
+      <c r="M42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="13">
         <v>40600</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="10">
         <v>12</v>
       </c>
-      <c r="P42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q42" s="14">
+      <c r="P42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="13">
         <v>40603</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="10">
         <v>9</v>
       </c>
-      <c r="S42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T42" s="14">
+      <c r="S42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T42" s="13">
         <v>40649</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="10">
         <v>12</v>
       </c>
-      <c r="V42" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W42" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="X42" s="25">
+      <c r="V42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X42" s="19">
         <v>40652</v>
       </c>
-      <c r="Y42" s="10">
+      <c r="Y42" s="6">
         <v>3</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="10">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="10">
         <f t="shared" si="5"/>
         <v>2.0666666666666669</v>
       </c>
-      <c r="AB42" s="12" t="s">
-        <v>84</v>
+      <c r="AB42" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="27">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4">
         <v>597</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="4">
         <f t="shared" si="3"/>
         <v>697</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="4">
         <v>375</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="14">
+      <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="13">
         <v>40623</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>40623</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="10">
         <v>7</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43" s="14">
+      <c r="J43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="13">
         <v>40627</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="17">
         <v>7</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N43" s="14">
+      <c r="M43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" s="13">
         <v>40631</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="10">
         <v>6</v>
       </c>
-      <c r="P43" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q43" s="14">
+      <c r="P43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="13">
         <v>40635</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="10">
         <v>8</v>
       </c>
-      <c r="S43" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="T43" s="14">
+      <c r="S43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" s="13">
         <v>40637</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="10">
         <v>4</v>
       </c>
-      <c r="V43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="X43" s="14">
+      <c r="V43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X43" s="13">
         <v>40646</v>
       </c>
-      <c r="Y43" s="12">
+      <c r="Y43" s="10">
         <v>3</v>
       </c>
-      <c r="Z43" s="12">
+      <c r="Z43" s="10">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="10">
         <f t="shared" si="5"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AB43" s="12" t="s">
-        <v>85</v>
+      <c r="AB43" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>151</v>
-      </c>
+    <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
       <c r="B44">
         <v>598</v>
       </c>
@@ -5307,665 +4785,635 @@
         <v>376</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="14">
+        <v>74</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="9">
         <v>40635</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="9">
         <v>40635</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="7">
         <v>13</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K44" s="14">
+      <c r="J44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="9">
         <v>40643</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="8">
         <v>13</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N44" s="14">
+      <c r="M44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44" s="9">
         <v>40647</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="7">
         <v>13</v>
       </c>
-      <c r="P44" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12">
+      <c r="P44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="AA44" s="12">
+      <c r="AA44" s="7">
         <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="27">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4">
         <v>599</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="4">
         <f t="shared" si="3"/>
         <v>699</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="4">
         <v>377</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="14">
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="13">
         <v>40641</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>40641</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <v>9</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="K45" s="18">
+      <c r="J45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="13">
         <v>40644</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="17">
         <v>9</v>
       </c>
-      <c r="M45" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="N45" s="14">
+      <c r="M45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="13">
         <v>40646</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="10">
         <v>14</v>
       </c>
-      <c r="P45" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q45" s="14">
+      <c r="P45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="13">
         <v>40650</v>
       </c>
-      <c r="R45" s="12">
+      <c r="R45" s="10">
         <v>9</v>
       </c>
-      <c r="S45" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="T45" s="14">
+      <c r="S45" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T45" s="13">
         <v>40652</v>
       </c>
-      <c r="U45" s="12">
+      <c r="U45" s="10">
         <v>5</v>
       </c>
-      <c r="V45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="X45" s="14">
+      <c r="V45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="X45" s="13">
         <v>40655</v>
       </c>
-      <c r="Y45" s="12">
+      <c r="Y45" s="10">
         <v>2</v>
       </c>
-      <c r="Z45" s="12">
+      <c r="Z45" s="10">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="AA45" s="12">
+      <c r="AA45" s="10">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="AB45" s="12" t="s">
-        <v>85</v>
+      <c r="AB45" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="27">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4">
         <v>600</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="4">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="4">
         <v>378</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="14">
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="13">
         <v>40630</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>40629</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <v>9</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" s="14">
+      <c r="J46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="13">
         <v>40631</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="17">
         <v>12</v>
       </c>
-      <c r="M46" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N46" s="14">
+      <c r="M46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="13">
         <v>40634</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="10">
         <v>8</v>
       </c>
-      <c r="P46" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q46" s="14">
+      <c r="P46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="13">
         <v>40637</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="10">
         <v>6</v>
       </c>
-      <c r="S46" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T46" s="14">
+      <c r="S46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" s="13">
         <v>40640</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="10">
         <v>4</v>
       </c>
-      <c r="V46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="X46" s="14">
+      <c r="V46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X46" s="13">
         <v>40644</v>
       </c>
-      <c r="Y46" s="12">
+      <c r="Y46" s="10">
         <v>5</v>
       </c>
-      <c r="Z46" s="12">
+      <c r="Z46" s="10">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="AA46" s="12">
+      <c r="AA46" s="10">
         <f t="shared" si="5"/>
         <v>1.4666666666666666</v>
       </c>
-      <c r="AB46" s="12" t="s">
-        <v>85</v>
+      <c r="AB46" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="27">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4">
         <v>601</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="4">
         <f t="shared" si="3"/>
         <v>701</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="4">
         <v>379</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="13">
+        <v>40630</v>
+      </c>
+      <c r="H47" s="13">
+        <v>40629</v>
+      </c>
+      <c r="I47" s="10">
+        <v>19</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="13">
+        <v>40632</v>
+      </c>
+      <c r="L47" s="17">
+        <v>12</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="13">
+        <v>40637</v>
+      </c>
+      <c r="O47" s="10">
+        <v>7</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>40640</v>
+      </c>
+      <c r="R47" s="10">
+        <v>11</v>
+      </c>
+      <c r="S47" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="14">
-        <v>40630</v>
-      </c>
-      <c r="H47" s="14">
-        <v>40629</v>
-      </c>
-      <c r="I47" s="12">
-        <v>19</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" s="14">
-        <v>40632</v>
-      </c>
-      <c r="L47" s="13">
-        <v>12</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N47" s="14">
-        <v>40637</v>
-      </c>
-      <c r="O47" s="12">
+      <c r="T47" s="13">
+        <v>40644</v>
+      </c>
+      <c r="U47" s="10">
         <v>7</v>
       </c>
-      <c r="P47" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>40640</v>
-      </c>
-      <c r="R47" s="12">
-        <v>11</v>
-      </c>
-      <c r="S47" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="T47" s="14">
-        <v>40644</v>
-      </c>
-      <c r="U47" s="12">
-        <v>7</v>
-      </c>
-      <c r="V47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="X47" s="14">
+      <c r="V47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X47" s="13">
         <v>40647</v>
       </c>
-      <c r="Y47" s="12">
+      <c r="Y47" s="10">
         <v>5</v>
       </c>
-      <c r="Z47" s="12">
+      <c r="Z47" s="10">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="AA47" s="12">
+      <c r="AA47" s="10">
         <f t="shared" si="5"/>
         <v>2.0333333333333332</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>84</v>
+      <c r="AB47" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="27">
+      <c r="A48" s="20"/>
+      <c r="B48" s="4">
         <v>602</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="4">
         <f t="shared" si="3"/>
         <v>702</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="4">
         <v>380</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="E48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2">
         <v>40611</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="2">
         <v>40612</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="1">
         <v>11</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="J48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="2">
         <v>40615</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="3">
         <v>14</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N48" s="6">
+      <c r="M48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="2">
         <v>40618</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="1">
         <v>6</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q48" s="6">
+      <c r="P48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="2">
         <v>40619</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="1">
         <v>5</v>
       </c>
-      <c r="S48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T48" s="6">
+      <c r="S48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="2">
         <v>40625</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="1">
         <v>9</v>
       </c>
-      <c r="V48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X48" s="6">
+      <c r="V48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X48" s="2">
         <v>40627</v>
       </c>
-      <c r="Y48" s="5">
+      <c r="Y48" s="1">
         <v>3</v>
       </c>
-      <c r="Z48" s="5">
+      <c r="Z48" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="AA48" s="5">
+      <c r="AA48" s="1">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="AB48" s="5" t="s">
-        <v>85</v>
+      <c r="AB48" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="27">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4">
         <v>603</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="4">
         <f t="shared" si="3"/>
         <v>703</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="4">
         <v>381</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="13">
+        <v>40632</v>
+      </c>
+      <c r="H49" s="13">
+        <v>40624</v>
+      </c>
+      <c r="I49" s="10">
+        <v>12</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="13">
+        <v>40627</v>
+      </c>
+      <c r="L49" s="17">
+        <v>11</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="13">
+        <v>40630</v>
+      </c>
+      <c r="O49" s="10">
+        <v>10</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>40634</v>
+      </c>
+      <c r="R49" s="10">
+        <v>8</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T49" s="13">
+        <v>40638</v>
+      </c>
+      <c r="U49" s="10">
+        <v>7</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W49" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="14">
-        <v>40632</v>
-      </c>
-      <c r="H49" s="14">
-        <v>40624</v>
-      </c>
-      <c r="I49" s="12">
-        <v>12</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K49" s="14">
-        <v>40627</v>
-      </c>
-      <c r="L49" s="13">
-        <v>11</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" s="14">
-        <v>40630</v>
-      </c>
-      <c r="O49" s="12">
-        <v>10</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>40634</v>
-      </c>
-      <c r="R49" s="12">
-        <v>8</v>
-      </c>
-      <c r="S49" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="T49" s="14">
-        <v>40638</v>
-      </c>
-      <c r="U49" s="12">
-        <v>7</v>
-      </c>
-      <c r="V49" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X49" s="14">
+      <c r="X49" s="13">
         <v>40643</v>
       </c>
-      <c r="Y49" s="12">
+      <c r="Y49" s="10">
         <v>3</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z49" s="10">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="AA49" s="12">
+      <c r="AA49" s="10">
         <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
-      <c r="AB49" s="12" t="s">
-        <v>85</v>
+      <c r="AB49" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="27">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4">
         <v>604</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="4">
         <f t="shared" si="3"/>
         <v>704</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="4">
         <v>382</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="14">
+      <c r="E50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="13">
         <v>40628</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>40624</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="10">
         <v>10</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K50" s="14">
+      <c r="J50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="13">
         <v>40630</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="17">
         <v>7</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="N50" s="14">
+      <c r="M50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="13">
         <v>40632</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="10">
         <v>8</v>
       </c>
-      <c r="P50" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q50" s="14">
+      <c r="P50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50" s="13">
         <v>40641</v>
       </c>
-      <c r="R50" s="12">
+      <c r="R50" s="10">
         <v>6</v>
       </c>
-      <c r="S50" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="T50" s="14">
+      <c r="S50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" s="13">
         <v>40650</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U50" s="10">
         <v>9</v>
       </c>
-      <c r="V50" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W50" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="X50" s="14">
+      <c r="V50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X50" s="13">
         <v>40652</v>
       </c>
-      <c r="Y50" s="12">
+      <c r="Y50" s="10">
         <v>3</v>
       </c>
-      <c r="Z50" s="12">
+      <c r="Z50" s="10">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="AA50" s="12">
+      <c r="AA50" s="10">
         <f t="shared" si="5"/>
         <v>1.4333333333333333</v>
       </c>
-      <c r="AB50" s="12" t="s">
-        <v>85</v>
+      <c r="AB50" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="27">
+      <c r="A51" s="20"/>
+      <c r="B51" s="4">
         <v>605</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="4">
         <f t="shared" si="3"/>
         <v>705</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="4">
         <v>383</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="2">
         <v>40603</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>40624</v>
       </c>
       <c r="I51" s="1">
         <v>17</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="J51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="2">
         <v>40627</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="3">
         <v>13</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N51" s="4">
+      <c r="M51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="2">
         <v>40629</v>
       </c>
       <c r="O51" s="1">
         <v>8</v>
       </c>
-      <c r="P51" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q51" s="4">
+      <c r="P51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51" s="2">
         <v>40631</v>
       </c>
       <c r="R51" s="1">
         <v>7</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T51" s="4">
+      <c r="S51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" s="2">
         <v>40636</v>
       </c>
       <c r="U51" s="1">
         <v>8</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X51" s="4">
+        <v>25</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X51" s="2">
         <v>40638</v>
       </c>
       <c r="Y51" s="1">
@@ -5980,170 +5428,162 @@
         <v>1.8666666666666667</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="27">
+      <c r="A52" s="20"/>
+      <c r="B52" s="4">
         <v>606</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="4">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="4">
         <v>384</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="2">
         <v>40611</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="2">
         <v>40614</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="1">
         <v>3</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K52" s="6">
+      <c r="J52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="2">
         <v>40619</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="3">
         <v>6</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N52" s="6">
+      <c r="M52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="2">
         <v>40616</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="1">
         <v>8</v>
       </c>
-      <c r="P52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q52" s="6">
+      <c r="P52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="2">
         <v>40623</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R52" s="1">
         <v>12</v>
       </c>
-      <c r="S52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T52" s="6">
+      <c r="S52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="2">
         <v>40625</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U52" s="1">
         <v>5</v>
       </c>
-      <c r="V52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="X52" s="6">
+      <c r="V52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X52" s="2">
         <v>40629</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="1">
         <v>2</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="Z52" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AA52" s="1">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="AB52" s="5" t="s">
-        <v>85</v>
+      <c r="AB52" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="27">
+      <c r="A53" s="1"/>
+      <c r="B53" s="4">
         <v>607</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="4">
         <f t="shared" si="3"/>
         <v>707</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="4">
         <v>385</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2">
         <v>40584</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <v>40584</v>
       </c>
       <c r="I53" s="1">
         <v>19</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="4">
+      <c r="J53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2">
         <v>40588</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="3">
         <v>16</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" s="6">
+      <c r="M53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="2">
         <v>40591</v>
       </c>
       <c r="O53" s="1">
         <v>14</v>
       </c>
-      <c r="P53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="6">
+      <c r="P53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="2">
         <v>40596</v>
       </c>
       <c r="R53" s="1">
         <v>16</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="4">
+      <c r="S53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T53" s="2">
         <v>40603</v>
       </c>
       <c r="U53" s="1">
         <v>12</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W53" s="4">
+        <v>25</v>
+      </c>
+      <c r="W53" s="2">
         <v>40610</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="2">
         <v>40621</v>
       </c>
       <c r="Y53" s="1">
@@ -6158,170 +5598,162 @@
         <v>2.6333333333333333</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="27">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4">
         <v>608</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="4">
         <f t="shared" si="3"/>
         <v>708</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="4">
         <v>386</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="13">
+        <v>40633</v>
+      </c>
+      <c r="H54" s="13">
+        <v>40633</v>
+      </c>
+      <c r="I54" s="10">
+        <v>11</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="13">
+        <v>40636</v>
+      </c>
+      <c r="L54" s="17">
+        <v>12</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54" s="13">
+        <v>40638</v>
+      </c>
+      <c r="O54" s="10">
+        <v>8</v>
+      </c>
+      <c r="P54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="14">
-        <v>40633</v>
-      </c>
-      <c r="H54" s="14">
-        <v>40633</v>
-      </c>
-      <c r="I54" s="12">
-        <v>11</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" s="14">
-        <v>40636</v>
-      </c>
-      <c r="L54" s="13">
-        <v>12</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N54" s="14">
-        <v>40638</v>
-      </c>
-      <c r="O54" s="12">
-        <v>8</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q54" s="14">
+      <c r="Q54" s="13">
         <v>40643</v>
       </c>
-      <c r="R54" s="12">
+      <c r="R54" s="10">
         <v>9</v>
       </c>
-      <c r="S54" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="T54" s="14">
+      <c r="S54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" s="13">
         <v>40645</v>
       </c>
-      <c r="U54" s="12">
+      <c r="U54" s="10">
         <v>3</v>
       </c>
-      <c r="V54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W54" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="X54" s="14">
+      <c r="V54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54" s="13">
         <v>40647</v>
       </c>
-      <c r="Y54" s="12">
+      <c r="Y54" s="10">
         <v>3</v>
       </c>
-      <c r="Z54" s="12">
+      <c r="Z54" s="10">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="AA54" s="12">
+      <c r="AA54" s="10">
         <f t="shared" si="5"/>
         <v>1.5333333333333334</v>
       </c>
-      <c r="AB54" s="12" t="s">
-        <v>85</v>
+      <c r="AB54" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="27">
+      <c r="A55" s="1"/>
+      <c r="B55" s="4">
         <v>609</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="4">
         <f t="shared" si="3"/>
         <v>709</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="4">
         <v>387</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2">
         <v>40596</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>40596</v>
       </c>
       <c r="I55" s="1">
         <v>17</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="6">
+      <c r="J55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="2">
         <v>40598</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="3">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N55" s="6">
+        <v>27</v>
+      </c>
+      <c r="N55" s="2">
         <v>40603</v>
       </c>
       <c r="O55" s="1">
         <v>11</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="P55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="2">
         <v>40610</v>
       </c>
       <c r="R55" s="1">
         <v>17</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T55" s="4">
+        <v>32</v>
+      </c>
+      <c r="T55" s="2">
         <v>40619</v>
       </c>
       <c r="U55" s="1">
         <v>20</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W55" s="4">
+        <v>25</v>
+      </c>
+      <c r="W55" s="2">
         <v>40623</v>
       </c>
-      <c r="X55" s="4">
+      <c r="X55" s="2">
         <v>40624</v>
       </c>
       <c r="Y55" s="1">
@@ -6336,114 +5768,98 @@
         <v>2.9333333333333331</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="27">
+      <c r="A56" s="20"/>
+      <c r="B56" s="4">
         <v>610</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="4">
         <f t="shared" si="3"/>
         <v>710</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="4">
         <v>388</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="E56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2">
         <v>40611</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="2">
         <v>40613</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="1">
         <v>7</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="6">
+      <c r="J56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="2">
         <v>40615</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="3">
         <v>7</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N56" s="6">
+      <c r="M56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2">
         <v>40617</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="1">
         <v>5</v>
       </c>
-      <c r="P56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q56" s="6">
+      <c r="P56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="2">
         <v>40620</v>
       </c>
-      <c r="R56" s="5">
+      <c r="R56" s="1">
         <v>6</v>
       </c>
-      <c r="S56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T56" s="6">
+      <c r="S56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T56" s="2">
         <v>40623</v>
       </c>
-      <c r="U56" s="5">
+      <c r="U56" s="1">
         <v>6</v>
       </c>
-      <c r="V56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="W56" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X56" s="6">
+      <c r="V56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X56" s="2">
         <v>40627</v>
       </c>
-      <c r="Y56" s="5">
+      <c r="Y56" s="1">
         <v>3</v>
       </c>
-      <c r="Z56" s="5">
+      <c r="Z56" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="AA56" s="5">
+      <c r="AA56" s="1">
         <f t="shared" si="5"/>
         <v>1.1333333333333333</v>
       </c>
-      <c r="AB56" s="5" t="s">
-        <v>85</v>
+      <c r="AB56" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:AA56">
     <sortCondition ref="A1"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="mailto:allison626@Live.MissouriState.edu"/>
-    <hyperlink ref="F27" r:id="rId2" display="mailto:julie1982@Live.MissouriState.edu"/>
-    <hyperlink ref="F6" r:id="rId3" display="mailto:alicia008@Live.MissouriState.edu"/>
-    <hyperlink ref="F51" r:id="rId4"/>
-    <hyperlink ref="F43" r:id="rId5"/>
-    <hyperlink ref="F47" r:id="rId6"/>
-    <hyperlink ref="F31" r:id="rId7"/>
-    <hyperlink ref="F39" r:id="rId8"/>
-    <hyperlink ref="F42" r:id="rId9" display="mailto:molly292@Live.MissouriState.edu"/>
-    <hyperlink ref="F32" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>